--- a/Group9_Unsupervised_Project_Metrics.xlsx
+++ b/Group9_Unsupervised_Project_Metrics.xlsx
@@ -461,42 +461,42 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>train_labels</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>test_labels</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>train_sil</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>train_dbi</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>train_ch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>test_sil</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>test_dbi</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>test_ch</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>train_labels</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>test_labels</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 0]</t>
+          <t>[0 2 1 ... 0 0 0]</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -527,26 +527,47 @@
           <t>n_init=10, max_iter=100</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0 0 2 2 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0
+ 2 0 0 1 0 0 2 1 0 0 1 0 2 0 1 0 0 1 1 0 2 1 0 1 0 0 1 0 1 1 1 1 0 1 1 0 0
+ 1 0 0 1 2 1 1 2 0 0 1 0 0 1 0 0 1 1 2 0 1 0 0 2 0 2 1 1 2 0 1 1 0 2 0 1 0
+ 1 1 1 0 1 1 2 1 0 1 1 1 0 2 0 0 0 1 0 0 0 0 0 1 2 0 1 2 1 1 0 1 0 0 0 0 0
+ 1 0 0 0 1 1 1 1 0 0 1 2 0 1 1 1 2 1 0 0 1 2 0 0 0 1 0 1 1 1 0 0 0 1 0 0 2
+ 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 1 0 2 1 1 2 1 0 0 0
+ 0 1 1 0 0 2 0 0 0 1 0 0 1 0 0 1 0 1 1 2 0 0 0 1 0 1 1 1 1 2 1 0 0 0 1 1 2
+ 0 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 1 2 1 0 0 0 0 0 0 1 1 1 1 1 0 0 1 1
+ 2 1 1 2 1 1 0 2 1 1 1 1 0 0 0 2 1 0 0 1 1 0 1 1 1 1 0 0 0 1 1 1 0 0 1 0 2
+ 0 2 0 1 0 0 2 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 2 2 1 2 0 0 1 0 1 0 0 1 2 0 1
+ 2 0 1 0 0 1 1 0 2 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 2 2 0 0 1 1 2 2 2 0 1 0 2
+ 0 1 0 2 1 0 0 0 1 1 0 2 1 0 1 0 0 2 2 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1
+ 1 1 0 0 1 1 0 0 1 0 2 0 0 1 0 1 0 1 2 2 1 0 0 0 0 0 2 0 1 0 1 1 0 1 1 0 0
+ 1 0 0 0 1 1 0 1 1 1 0 0 1 0 2 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 0 1 0]</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>0.2071644849792586</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>1.67343578250594</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>92.67716381227703</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>0.199247980006747</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>1.720239023062947</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>653.5033401810118</v>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -557,7 +578,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 0]</t>
+          <t>[0 2 1 ... 0 0 0]</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -571,26 +592,47 @@
           <t>n_init=10, max_iter=300</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[0 0 2 2 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0
+ 2 0 0 1 0 0 2 1 0 0 1 0 2 0 1 0 0 1 1 0 2 1 0 1 0 0 1 0 1 1 1 1 0 1 1 0 0
+ 1 0 0 1 2 1 1 2 0 0 1 0 0 1 0 0 1 1 2 0 1 0 0 2 0 2 1 1 2 0 1 1 0 2 0 1 0
+ 1 1 1 0 1 1 2 1 0 1 1 1 0 2 0 0 0 1 0 0 0 0 0 1 2 0 1 2 1 1 0 1 0 0 0 0 0
+ 1 0 0 0 1 1 1 1 0 0 1 2 0 1 1 1 2 1 0 0 1 2 0 0 0 1 0 1 1 1 0 0 0 1 0 0 2
+ 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 1 0 2 1 1 2 1 0 0 0
+ 0 1 1 0 0 2 0 0 0 1 0 0 1 0 0 1 0 1 1 2 0 0 0 1 0 1 1 1 1 2 1 0 0 0 1 1 2
+ 0 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 1 2 1 0 0 0 0 0 0 1 1 1 1 1 0 0 1 1
+ 2 1 1 2 1 1 0 2 1 1 1 1 0 0 0 2 1 0 0 1 1 0 1 1 1 1 0 0 0 1 1 1 0 0 1 0 2
+ 0 2 0 1 0 0 2 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 2 2 1 2 0 0 1 0 1 0 0 1 2 0 1
+ 2 0 1 0 0 1 1 0 2 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 2 2 0 0 1 1 2 2 2 0 1 0 2
+ 0 1 0 2 1 0 0 0 1 1 0 2 1 0 1 0 0 2 2 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1
+ 1 1 0 0 1 1 0 0 1 0 2 0 0 1 0 1 0 1 2 2 1 0 0 0 0 0 2 0 1 0 1 1 0 1 1 0 0
+ 1 0 0 0 1 1 0 1 1 1 0 0 1 0 2 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 0 1 0]</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>0.2071644849792586</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>1.67343578250594</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>92.67716381227703</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>0.199247980006747</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>1.720239023062947</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>653.5033401810118</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -601,7 +643,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 0]</t>
+          <t>[0 2 1 ... 0 0 0]</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -615,26 +657,47 @@
           <t>n_init=10, max_iter=600</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[0 0 2 2 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0
+ 2 0 0 1 0 0 2 1 0 0 1 0 2 0 1 0 0 1 1 0 2 1 0 1 0 0 1 0 1 1 1 1 0 1 1 0 0
+ 1 0 0 1 2 1 1 2 0 0 1 0 0 1 0 0 1 1 2 0 1 0 0 2 0 2 1 1 2 0 1 1 0 2 0 1 0
+ 1 1 1 0 1 1 2 1 0 1 1 1 0 2 0 0 0 1 0 0 0 0 0 1 2 0 1 2 1 1 0 1 0 0 0 0 0
+ 1 0 0 0 1 1 1 1 0 0 1 2 0 1 1 1 2 1 0 0 1 2 0 0 0 1 0 1 1 1 0 0 0 1 0 0 2
+ 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 1 0 2 1 1 2 1 0 0 0
+ 0 1 1 0 0 2 0 0 0 1 0 0 1 0 0 1 0 1 1 2 0 0 0 1 0 1 1 1 1 2 1 0 0 0 1 1 2
+ 0 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 1 2 1 0 0 0 0 0 0 1 1 1 1 1 0 0 1 1
+ 2 1 1 2 1 1 0 2 1 1 1 1 0 0 0 2 1 0 0 1 1 0 1 1 1 1 0 0 0 1 1 1 0 0 1 0 2
+ 0 2 0 1 0 0 2 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 2 2 1 2 0 0 1 0 1 0 0 1 2 0 1
+ 2 0 1 0 0 1 1 0 2 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 2 2 0 0 1 1 2 2 2 0 1 0 2
+ 0 1 0 2 1 0 0 0 1 1 0 2 1 0 1 0 0 2 2 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1
+ 1 1 0 0 1 1 0 0 1 0 2 0 0 1 0 1 0 1 2 2 1 0 0 0 0 0 2 0 1 0 1 1 0 1 1 0 0
+ 1 0 0 0 1 1 0 1 1 1 0 0 1 0 2 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 0 1 0]</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>0.2071644849792586</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>1.67343578250594</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>92.67716381227703</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>0.199247980006747</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>1.720239023062947</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>653.5033401810118</v>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -645,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 1 2 ... 2 1 2]</t>
+          <t>[0 2 1 ... 0 0 0]</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -659,26 +722,47 @@
           <t>n_init=20, max_iter=100</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[0 0 2 2 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0
+ 2 0 0 1 0 0 2 1 0 0 1 0 2 0 1 0 0 1 1 0 2 1 0 1 0 0 1 0 1 1 1 1 0 1 1 0 0
+ 1 0 0 1 2 1 1 2 0 0 1 0 0 1 0 0 1 1 2 0 1 0 0 2 0 2 1 1 2 0 1 1 0 2 0 1 0
+ 1 1 1 0 1 1 2 1 0 1 1 1 0 2 0 0 0 1 0 0 0 0 0 1 2 0 1 2 1 1 0 1 0 0 0 0 0
+ 1 0 0 0 1 1 1 1 0 0 1 2 0 1 1 1 2 1 0 0 1 2 0 0 0 1 0 1 1 1 0 0 0 1 0 0 2
+ 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 1 0 2 1 1 2 1 0 0 0
+ 0 1 1 0 0 2 0 0 0 1 0 0 1 0 0 1 0 1 1 2 0 0 0 1 0 1 1 1 1 2 1 0 0 0 1 1 2
+ 0 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 1 2 1 0 0 0 0 0 0 1 1 1 1 1 0 0 1 1
+ 2 1 1 2 1 1 0 2 1 1 1 1 0 0 0 2 1 0 0 1 1 0 1 1 1 1 0 0 0 1 1 1 0 0 1 0 2
+ 0 2 0 1 0 0 2 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 2 2 1 2 0 0 1 0 1 0 0 1 2 0 1
+ 2 0 1 0 0 1 1 0 2 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 2 2 0 0 1 1 2 2 2 0 1 0 2
+ 0 1 0 2 1 0 0 0 1 1 0 2 1 0 1 0 0 2 2 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1
+ 1 1 0 0 1 1 0 0 1 0 2 0 0 1 0 1 0 1 2 2 1 0 0 0 0 0 2 0 1 0 1 1 0 1 1 0 0
+ 1 0 0 0 1 1 0 1 1 1 0 0 1 0 2 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 0 1 0]</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>0.2071644849792586</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>1.67343578250594</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>92.67716381227703</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>0.199247980006747</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>1.720239023062947</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>653.5033401810118</v>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -689,7 +773,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 1 2 ... 2 1 2]</t>
+          <t>[0 2 1 ... 0 0 0]</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -703,26 +787,47 @@
           <t>n_init=20, max_iter=300</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[0 0 2 2 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0
+ 2 0 0 1 0 0 2 1 0 0 1 0 2 0 1 0 0 1 1 0 2 1 0 1 0 0 1 0 1 1 1 1 0 1 1 0 0
+ 1 0 0 1 2 1 1 2 0 0 1 0 0 1 0 0 1 1 2 0 1 0 0 2 0 2 1 1 2 0 1 1 0 2 0 1 0
+ 1 1 1 0 1 1 2 1 0 1 1 1 0 2 0 0 0 1 0 0 0 0 0 1 2 0 1 2 1 1 0 1 0 0 0 0 0
+ 1 0 0 0 1 1 1 1 0 0 1 2 0 1 1 1 2 1 0 0 1 2 0 0 0 1 0 1 1 1 0 0 0 1 0 0 2
+ 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 1 0 2 1 1 2 1 0 0 0
+ 0 1 1 0 0 2 0 0 0 1 0 0 1 0 0 1 0 1 1 2 0 0 0 1 0 1 1 1 1 2 1 0 0 0 1 1 2
+ 0 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 1 2 1 0 0 0 0 0 0 1 1 1 1 1 0 0 1 1
+ 2 1 1 2 1 1 0 2 1 1 1 1 0 0 0 2 1 0 0 1 1 0 1 1 1 1 0 0 0 1 1 1 0 0 1 0 2
+ 0 2 0 1 0 0 2 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 2 2 1 2 0 0 1 0 1 0 0 1 2 0 1
+ 2 0 1 0 0 1 1 0 2 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 2 2 0 0 1 1 2 2 2 0 1 0 2
+ 0 1 0 2 1 0 0 0 1 1 0 2 1 0 1 0 0 2 2 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1
+ 1 1 0 0 1 1 0 0 1 0 2 0 0 1 0 1 0 1 2 2 1 0 0 0 0 0 2 0 1 0 1 1 0 1 1 0 0
+ 1 0 0 0 1 1 0 1 1 1 0 0 1 0 2 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 0 1 0]</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>0.2071644849792586</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>1.67343578250594</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>92.67716381227703</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>0.199247980006747</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>1.720239023062947</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>653.5033401810118</v>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -733,7 +838,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1 1 2 ... 2 1 2]</t>
+          <t>[0 2 1 ... 0 0 0]</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -747,26 +852,47 @@
           <t>n_init=20, max_iter=600</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[0 0 2 2 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0
+ 2 0 0 1 0 0 2 1 0 0 1 0 2 0 1 0 0 1 1 0 2 1 0 1 0 0 1 0 1 1 1 1 0 1 1 0 0
+ 1 0 0 1 2 1 1 2 0 0 1 0 0 1 0 0 1 1 2 0 1 0 0 2 0 2 1 1 2 0 1 1 0 2 0 1 0
+ 1 1 1 0 1 1 2 1 0 1 1 1 0 2 0 0 0 1 0 0 0 0 0 1 2 0 1 2 1 1 0 1 0 0 0 0 0
+ 1 0 0 0 1 1 1 1 0 0 1 2 0 1 1 1 2 1 0 0 1 2 0 0 0 1 0 1 1 1 0 0 0 1 0 0 2
+ 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 1 0 2 1 1 2 1 0 0 0
+ 0 1 1 0 0 2 0 0 0 1 0 0 1 0 0 1 0 1 1 2 0 0 0 1 0 1 1 1 1 2 1 0 0 0 1 1 2
+ 0 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 1 2 1 0 0 0 0 0 0 1 1 1 1 1 0 0 1 1
+ 2 1 1 2 1 1 0 2 1 1 1 1 0 0 0 2 1 0 0 1 1 0 1 1 1 1 0 0 0 1 1 1 0 0 1 0 2
+ 0 2 0 1 0 0 2 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 2 2 1 2 0 0 1 0 1 0 0 1 2 0 1
+ 2 0 1 0 0 1 1 0 2 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 2 2 0 0 1 1 2 2 2 0 1 0 2
+ 0 1 0 2 1 0 0 0 1 1 0 2 1 0 1 0 0 2 2 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1
+ 1 1 0 0 1 1 0 0 1 0 2 0 0 1 0 1 0 1 2 2 1 0 0 0 0 0 2 0 1 0 1 1 0 1 1 0 0
+ 1 0 0 0 1 1 0 1 1 1 0 0 1 0 2 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 0 1 0]</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>0.2071644849792586</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>1.67343578250594</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>92.67716381227703</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>0.199247980006747</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>1.720239023062947</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>653.5033401810118</v>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -777,7 +903,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 2]</t>
+          <t>[1 2 0 ... 1 1 1]</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -791,26 +917,47 @@
           <t>n_init=50, max_iter=100</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[1 1 2 2 0 1 1 0 0 0 1 1 1 0 1 1 1 0 0 1 1 0 1 1 0 0 1 1 1 1 1 0 1 1 2 1 1
+ 2 1 1 0 1 1 2 0 1 1 0 1 2 1 0 1 1 0 0 1 2 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 1
+ 0 1 1 0 2 0 0 2 1 1 0 1 1 0 1 1 0 0 2 1 0 1 1 2 1 2 0 0 2 1 0 0 1 2 1 0 1
+ 0 0 0 1 0 0 2 0 1 0 0 0 1 2 1 1 1 0 1 1 1 1 1 0 2 1 0 2 0 0 1 0 1 1 1 1 1
+ 0 1 1 1 0 0 0 0 1 1 0 2 1 0 0 0 2 0 1 1 0 2 1 1 1 0 1 0 0 0 1 1 1 0 1 1 2
+ 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 2 0 0 1 1 0 1 1 1 1 0 1 2 0 0 2 0 1 1 1
+ 1 0 0 1 1 2 1 1 1 0 1 1 0 0 1 0 1 0 0 2 1 1 1 0 1 0 0 0 0 2 0 1 1 1 0 0 2
+ 1 1 0 1 1 1 2 0 1 1 1 1 1 1 0 1 0 1 1 0 2 0 1 1 1 1 1 1 0 0 0 0 0 1 1 0 0
+ 2 0 0 2 0 0 1 2 0 0 0 0 1 1 1 2 0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 0 1 1 0 1 2
+ 1 2 1 0 1 1 2 1 1 0 1 0 1 0 0 1 0 1 1 1 1 1 2 2 0 2 1 1 0 1 0 1 1 0 2 1 0
+ 2 1 0 1 1 0 0 1 2 0 1 0 1 1 0 1 1 0 1 0 1 1 0 1 2 2 1 1 0 0 2 2 2 1 0 1 2
+ 1 0 1 2 0 1 1 1 0 0 1 2 0 1 0 1 1 2 2 0 1 0 1 0 1 0 1 1 0 1 1 1 0 0 1 1 0
+ 0 0 1 1 0 0 1 1 0 1 2 1 1 0 1 0 1 0 2 2 0 1 1 1 1 1 2 1 0 1 0 0 1 0 0 1 1
+ 0 1 1 1 0 0 0 0 0 0 1 1 0 1 2 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 0 1]</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>0.2065805308774953</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>1.671304003625281</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>92.67876468360394</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>0.199135017727126</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>1.718396054529355</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>653.5707756864792</v>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -821,7 +968,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 2]</t>
+          <t>[1 2 0 ... 1 1 1]</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -835,26 +982,47 @@
           <t>n_init=50, max_iter=300</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[1 1 2 2 0 1 1 0 0 0 1 1 1 0 1 1 1 0 0 1 1 0 1 1 0 0 1 1 1 1 1 0 1 1 2 1 1
+ 2 1 1 0 1 1 2 0 1 1 0 1 2 1 0 1 1 0 0 1 2 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 1
+ 0 1 1 0 2 0 0 2 1 1 0 1 1 0 1 1 0 0 2 1 0 1 1 2 1 2 0 0 2 1 0 0 1 2 1 0 1
+ 0 0 0 1 0 0 2 0 1 0 0 0 1 2 1 1 1 0 1 1 1 1 1 0 2 1 0 2 0 0 1 0 1 1 1 1 1
+ 0 1 1 1 0 0 0 0 1 1 0 2 1 0 0 0 2 0 1 1 0 2 1 1 1 0 1 0 0 0 1 1 1 0 1 1 2
+ 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 2 0 0 1 1 0 1 1 1 1 0 1 2 0 0 2 0 1 1 1
+ 1 0 0 1 1 2 1 1 1 0 1 1 0 0 1 0 1 0 0 2 1 1 1 0 1 0 0 0 0 2 0 1 1 1 0 0 2
+ 1 1 0 1 1 1 2 0 1 1 1 1 1 1 0 1 0 1 1 0 2 0 1 1 1 1 1 1 0 0 0 0 0 1 1 0 0
+ 2 0 0 2 0 0 1 2 0 0 0 0 1 1 1 2 0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 0 1 1 0 1 2
+ 1 2 1 0 1 1 2 1 1 0 1 0 1 0 0 1 0 1 1 1 1 1 2 2 0 2 1 1 0 1 0 1 1 0 2 1 0
+ 2 1 0 1 1 0 0 1 2 0 1 0 1 1 0 1 1 0 1 0 1 1 0 1 2 2 1 1 0 0 2 2 2 1 0 1 2
+ 1 0 1 2 0 1 1 1 0 0 1 2 0 1 0 1 1 2 2 0 1 0 1 0 1 0 1 1 0 1 1 1 0 0 1 1 0
+ 0 0 1 1 0 0 1 1 0 1 2 1 1 0 1 0 1 0 2 2 0 1 1 1 1 1 2 1 0 1 0 0 1 0 0 1 1
+ 0 1 1 1 0 0 0 0 0 0 1 1 0 1 2 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 0 1]</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>0.2065805308774953</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>1.671304003625281</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>92.67876468360394</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>0.199135017727126</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>1.718396054529355</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>653.5707756864792</v>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -865,7 +1033,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 2]</t>
+          <t>[1 2 0 ... 1 1 1]</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -879,26 +1047,47 @@
           <t>n_init=50, max_iter=600</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[1 1 2 2 0 1 1 0 0 0 1 1 1 0 1 1 1 0 0 1 1 0 1 1 0 0 1 1 1 1 1 0 1 1 2 1 1
+ 2 1 1 0 1 1 2 0 1 1 0 1 2 1 0 1 1 0 0 1 2 0 1 0 1 1 0 1 0 0 0 0 1 0 0 1 1
+ 0 1 1 0 2 0 0 2 1 1 0 1 1 0 1 1 0 0 2 1 0 1 1 2 1 2 0 0 2 1 0 0 1 2 1 0 1
+ 0 0 0 1 0 0 2 0 1 0 0 0 1 2 1 1 1 0 1 1 1 1 1 0 2 1 0 2 0 0 1 0 1 1 1 1 1
+ 0 1 1 1 0 0 0 0 1 1 0 2 1 0 0 0 2 0 1 1 0 2 1 1 1 0 1 0 0 0 1 1 1 0 1 1 2
+ 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 2 0 0 1 1 0 1 1 1 1 0 1 2 0 0 2 0 1 1 1
+ 1 0 0 1 1 2 1 1 1 0 1 1 0 0 1 0 1 0 0 2 1 1 1 0 1 0 0 0 0 2 0 1 1 1 0 0 2
+ 1 1 0 1 1 1 2 0 1 1 1 1 1 1 0 1 0 1 1 0 2 0 1 1 1 1 1 1 0 0 0 0 0 1 1 0 0
+ 2 0 0 2 0 0 1 2 0 0 0 0 1 1 1 2 0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 0 1 1 0 1 2
+ 1 2 1 0 1 1 2 1 1 0 1 0 1 0 0 1 0 1 1 1 1 1 2 2 0 2 1 1 0 1 0 1 1 0 2 1 0
+ 2 1 0 1 1 0 0 1 2 0 1 0 1 1 0 1 1 0 1 0 1 1 0 1 2 2 1 1 0 0 2 2 2 1 0 1 2
+ 1 0 1 2 0 1 1 1 0 0 1 2 0 1 0 1 1 2 2 0 1 0 1 0 1 0 1 1 0 1 1 1 0 0 1 1 0
+ 0 0 1 1 0 0 1 1 0 1 2 1 1 0 1 0 1 0 2 2 0 1 1 1 1 1 2 1 0 1 0 0 1 0 0 1 1
+ 0 1 1 1 0 0 0 0 0 0 1 1 0 1 2 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 0 1]</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>0.2065805308774953</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>1.671304003625281</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>92.67876468360394</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>0.199135017727126</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>1.718396054529355</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>653.5707756864792</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -909,7 +1098,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[3 4 0 ... 0 0 3]</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -923,26 +1112,47 @@
           <t>n_init=10, max_iter=100</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[3 3 4 4 0 3 3 0 2 2 3 3 3 2 3 3 3 0 2 0 3 2 3 3 0 0 0 0 3 3 0 0 3 3 4 3 3
+ 4 3 3 0 3 3 4 3 3 3 1 3 4 3 0 0 3 2 0 3 0 0 3 0 3 3 1 3 1 2 0 0 3 2 0 3 3
+ 0 3 3 2 4 0 2 4 3 3 0 3 0 0 3 3 2 2 4 3 2 3 3 4 3 4 0 2 4 3 0 2 0 4 3 2 3
+ 0 1 2 3 0 2 4 0 3 0 0 2 3 4 3 3 3 2 3 3 3 3 3 0 4 0 2 4 0 1 3 0 3 3 3 3 3
+ 0 3 3 3 0 0 0 2 3 3 0 4 0 0 0 0 4 1 3 3 0 4 3 3 3 0 0 2 0 2 3 3 3 0 3 0 4
+ 0 0 3 0 2 0 0 2 3 3 0 3 3 3 3 3 3 4 0 2 0 3 0 3 3 3 0 0 3 4 0 0 4 0 3 3 3
+ 3 0 0 3 3 4 3 3 3 1 3 3 0 0 3 0 3 0 0 4 0 3 2 0 3 0 1 0 0 0 0 3 3 3 1 0 4
+ 0 3 0 3 2 3 4 2 3 3 0 3 3 3 0 3 0 3 3 0 4 2 3 0 0 3 3 3 0 0 0 1 0 3 3 0 0
+ 4 0 0 4 0 2 3 4 0 0 2 1 3 3 3 4 1 3 3 0 0 0 2 0 0 0 3 3 3 2 2 1 3 0 2 3 1
+ 3 4 3 2 3 3 4 3 3 0 3 2 3 2 0 3 2 3 3 3 3 0 4 0 1 4 2 3 0 3 0 3 3 2 4 3 0
+ 4 3 0 0 3 0 2 0 4 0 3 2 3 3 1 3 0 2 3 0 3 3 2 3 4 4 3 3 2 0 4 4 4 3 0 3 3
+ 3 0 3 4 0 3 3 3 0 0 0 4 1 3 2 3 3 4 4 2 3 0 0 2 3 1 3 3 0 3 3 3 0 0 3 3 0
+ 2 1 3 3 0 0 3 3 0 3 3 3 3 2 3 1 3 2 4 4 0 3 3 3 3 3 4 3 0 3 0 0 3 2 0 3 3
+ 0 3 3 3 0 0 0 0 0 2 3 0 0 3 4 0 2 3 0]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 3 1 3]</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>0.2096795530564023</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.491659739677254</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>88.14680624912756</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>0.2113862504882753</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>1.518861551844353</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>632.554901191589</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -953,7 +1163,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[3 4 0 ... 0 0 3]</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -967,26 +1177,47 @@
           <t>n_init=10, max_iter=300</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[3 3 4 4 0 3 3 0 2 2 3 3 3 2 3 3 3 0 2 0 3 2 3 3 0 0 0 0 3 3 0 0 3 3 4 3 3
+ 4 3 3 0 3 3 4 3 3 3 1 3 4 3 0 0 3 2 0 3 0 0 3 0 3 3 1 3 1 2 0 0 3 2 0 3 3
+ 0 3 3 2 4 0 2 4 3 3 0 3 0 0 3 3 2 2 4 3 2 3 3 4 3 4 0 2 4 3 0 2 0 4 3 2 3
+ 0 1 2 3 0 2 4 0 3 0 0 2 3 4 3 3 3 2 3 3 3 3 3 0 4 0 2 4 0 1 3 0 3 3 3 3 3
+ 0 3 3 3 0 0 0 2 3 3 0 4 0 0 0 0 4 1 3 3 0 4 3 3 3 0 0 2 0 2 3 3 3 0 3 0 4
+ 0 0 3 0 2 0 0 2 3 3 0 3 3 3 3 3 3 4 0 2 0 3 0 3 3 3 0 0 3 4 0 0 4 0 3 3 3
+ 3 0 0 3 3 4 3 3 3 1 3 3 0 0 3 0 3 0 0 4 0 3 2 0 3 0 1 0 0 0 0 3 3 3 1 0 4
+ 0 3 0 3 2 3 4 2 3 3 0 3 3 3 0 3 0 3 3 0 4 2 3 0 0 3 3 3 0 0 0 1 0 3 3 0 0
+ 4 0 0 4 0 2 3 4 0 0 2 1 3 3 3 4 1 3 3 0 0 0 2 0 0 0 3 3 3 2 2 1 3 0 2 3 1
+ 3 4 3 2 3 3 4 3 3 0 3 2 3 2 0 3 2 3 3 3 3 0 4 0 1 4 2 3 0 3 0 3 3 2 4 3 0
+ 4 3 0 0 3 0 2 0 4 0 3 2 3 3 1 3 0 2 3 0 3 3 2 3 4 4 3 3 2 0 4 4 4 3 0 3 3
+ 3 0 3 4 0 3 3 3 0 0 0 4 1 3 2 3 3 4 4 2 3 0 0 2 3 1 3 3 0 3 3 3 0 0 3 3 0
+ 2 1 3 3 0 0 3 3 0 3 3 3 3 2 3 1 3 2 4 4 0 3 3 3 3 3 4 3 0 3 0 0 3 2 0 3 3
+ 0 3 3 3 0 0 0 0 0 2 3 0 0 3 4 0 2 3 0]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 3 1 3]</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>0.2096795530564023</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>1.491659739677254</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>88.14680624912756</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>0.2113862504882753</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1.518861551844353</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>632.554901191589</v>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -997,7 +1228,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[3 4 0 ... 0 0 3]</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1011,26 +1242,47 @@
           <t>n_init=10, max_iter=600</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[3 3 4 4 0 3 3 0 2 2 3 3 3 2 3 3 3 0 2 0 3 2 3 3 0 0 0 0 3 3 0 0 3 3 4 3 3
+ 4 3 3 0 3 3 4 3 3 3 1 3 4 3 0 0 3 2 0 3 0 0 3 0 3 3 1 3 1 2 0 0 3 2 0 3 3
+ 0 3 3 2 4 0 2 4 3 3 0 3 0 0 3 3 2 2 4 3 2 3 3 4 3 4 0 2 4 3 0 2 0 4 3 2 3
+ 0 1 2 3 0 2 4 0 3 0 0 2 3 4 3 3 3 2 3 3 3 3 3 0 4 0 2 4 0 1 3 0 3 3 3 3 3
+ 0 3 3 3 0 0 0 2 3 3 0 4 0 0 0 0 4 1 3 3 0 4 3 3 3 0 0 2 0 2 3 3 3 0 3 0 4
+ 0 0 3 0 2 0 0 2 3 3 0 3 3 3 3 3 3 4 0 2 0 3 0 3 3 3 0 0 3 4 0 0 4 0 3 3 3
+ 3 0 0 3 3 4 3 3 3 1 3 3 0 0 3 0 3 0 0 4 0 3 2 0 3 0 1 0 0 0 0 3 3 3 1 0 4
+ 0 3 0 3 2 3 4 2 3 3 0 3 3 3 0 3 0 3 3 0 4 2 3 0 0 3 3 3 0 0 0 1 0 3 3 0 0
+ 4 0 0 4 0 2 3 4 0 0 2 1 3 3 3 4 1 3 3 0 0 0 2 0 0 0 3 3 3 2 2 1 3 0 2 3 1
+ 3 4 3 2 3 3 4 3 3 0 3 2 3 2 0 3 2 3 3 3 3 0 4 0 1 4 2 3 0 3 0 3 3 2 4 3 0
+ 4 3 0 0 3 0 2 0 4 0 3 2 3 3 1 3 0 2 3 0 3 3 2 3 4 4 3 3 2 0 4 4 4 3 0 3 3
+ 3 0 3 4 0 3 3 3 0 0 0 4 1 3 2 3 3 4 4 2 3 0 0 2 3 1 3 3 0 3 3 3 0 0 3 3 0
+ 2 1 3 3 0 0 3 3 0 3 3 3 3 2 3 1 3 2 4 4 0 3 3 3 3 3 4 3 0 3 0 0 3 2 0 3 3
+ 0 3 3 3 0 0 0 0 0 2 3 0 0 3 4 0 2 3 0]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 3 1 3]</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>0.2096795530564023</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>1.491659739677254</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>88.14680624912756</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>0.2113862504882753</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1.518861551844353</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>632.554901191589</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1041,7 +1293,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[3 4 0 ... 0 0 3]</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1055,26 +1307,47 @@
           <t>n_init=20, max_iter=100</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[3 3 4 4 0 3 3 0 2 2 3 3 3 2 3 3 3 0 2 0 3 2 3 3 0 0 0 0 3 3 0 0 3 3 4 3 3
+ 4 3 3 0 3 3 4 3 3 3 1 3 4 3 0 0 3 2 0 3 0 0 3 0 3 3 1 3 1 2 0 0 3 2 0 3 3
+ 0 3 3 2 4 0 2 4 3 3 0 3 0 0 3 3 2 2 4 3 2 3 3 4 3 4 0 2 4 3 0 2 0 4 3 2 3
+ 0 1 2 3 0 2 4 0 3 0 0 2 3 4 3 3 3 2 3 3 3 3 3 0 4 0 2 4 0 1 3 0 3 3 3 3 3
+ 0 3 3 3 0 0 0 2 3 3 0 4 0 0 0 0 4 1 3 3 0 4 3 3 3 0 0 2 0 2 3 3 3 0 3 0 4
+ 0 0 3 0 2 0 0 2 3 3 0 3 3 3 3 3 3 4 0 2 0 3 0 3 3 3 0 0 3 4 0 0 4 0 3 3 3
+ 3 0 0 3 3 4 3 3 3 1 3 3 0 0 3 0 3 0 0 4 0 3 2 0 3 0 1 0 0 0 0 3 3 3 1 0 4
+ 0 3 0 3 2 3 4 2 3 3 0 3 3 3 0 3 0 3 3 0 4 2 3 0 0 3 3 3 0 0 0 1 0 3 3 0 0
+ 4 0 0 4 0 2 3 4 0 0 2 1 3 3 3 4 1 3 3 0 0 0 2 0 0 0 3 3 3 2 2 1 3 0 2 3 1
+ 3 4 3 2 3 3 4 3 3 0 3 2 3 2 0 3 2 3 3 3 3 0 4 0 1 4 2 3 0 3 0 3 3 2 4 3 0
+ 4 3 0 0 3 0 2 0 4 0 3 2 3 3 1 3 0 2 3 0 3 3 2 3 4 4 3 3 2 0 4 4 4 3 0 3 3
+ 3 0 3 4 0 3 3 3 0 0 0 4 1 3 2 3 3 4 4 2 3 0 0 2 3 1 3 3 0 3 3 3 0 0 3 3 0
+ 2 1 3 3 0 0 3 3 0 3 3 3 3 2 3 1 3 2 4 4 0 3 3 3 3 3 4 3 0 3 0 0 3 2 0 3 3
+ 0 3 3 3 0 0 0 0 0 2 3 0 0 3 4 0 2 3 0]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 3 1 3]</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>0.2096795530564023</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>1.491659739677254</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>88.14680624912756</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>0.2113862504882753</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1.518861551844353</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>632.554901191589</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1085,7 +1358,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[3 4 0 ... 0 0 3]</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1099,26 +1372,47 @@
           <t>n_init=20, max_iter=300</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[3 3 4 4 0 3 3 0 2 2 3 3 3 2 3 3 3 0 2 0 3 2 3 3 0 0 0 0 3 3 0 0 3 3 4 3 3
+ 4 3 3 0 3 3 4 3 3 3 1 3 4 3 0 0 3 2 0 3 0 0 3 0 3 3 1 3 1 2 0 0 3 2 0 3 3
+ 0 3 3 2 4 0 2 4 3 3 0 3 0 0 3 3 2 2 4 3 2 3 3 4 3 4 0 2 4 3 0 2 0 4 3 2 3
+ 0 1 2 3 0 2 4 0 3 0 0 2 3 4 3 3 3 2 3 3 3 3 3 0 4 0 2 4 0 1 3 0 3 3 3 3 3
+ 0 3 3 3 0 0 0 2 3 3 0 4 0 0 0 0 4 1 3 3 0 4 3 3 3 0 0 2 0 2 3 3 3 0 3 0 4
+ 0 0 3 0 2 0 0 2 3 3 0 3 3 3 3 3 3 4 0 2 0 3 0 3 3 3 0 0 3 4 0 0 4 0 3 3 3
+ 3 0 0 3 3 4 3 3 3 1 3 3 0 0 3 0 3 0 0 4 0 3 2 0 3 0 1 0 0 0 0 3 3 3 1 0 4
+ 0 3 0 3 2 3 4 2 3 3 0 3 3 3 0 3 0 3 3 0 4 2 3 0 0 3 3 3 0 0 0 1 0 3 3 0 0
+ 4 0 0 4 0 2 3 4 0 0 2 1 3 3 3 4 1 3 3 0 0 0 2 0 0 0 3 3 3 2 2 1 3 0 2 3 1
+ 3 4 3 2 3 3 4 3 3 0 3 2 3 2 0 3 2 3 3 3 3 0 4 0 1 4 2 3 0 3 0 3 3 2 4 3 0
+ 4 3 0 0 3 0 2 0 4 0 3 2 3 3 1 3 0 2 3 0 3 3 2 3 4 4 3 3 2 0 4 4 4 3 0 3 3
+ 3 0 3 4 0 3 3 3 0 0 0 4 1 3 2 3 3 4 4 2 3 0 0 2 3 1 3 3 0 3 3 3 0 0 3 3 0
+ 2 1 3 3 0 0 3 3 0 3 3 3 3 2 3 1 3 2 4 4 0 3 3 3 3 3 4 3 0 3 0 0 3 2 0 3 3
+ 0 3 3 3 0 0 0 0 0 2 3 0 0 3 4 0 2 3 0]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 3 1 3]</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>0.2096795530564023</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>1.491659739677254</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>88.14680624912756</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>0.2113862504882753</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1.518861551844353</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>632.554901191589</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1129,7 +1423,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[3 4 0 ... 0 0 3]</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1143,26 +1437,47 @@
           <t>n_init=20, max_iter=600</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[3 3 4 4 0 3 3 0 2 2 3 3 3 2 3 3 3 0 2 0 3 2 3 3 0 0 0 0 3 3 0 0 3 3 4 3 3
+ 4 3 3 0 3 3 4 3 3 3 1 3 4 3 0 0 3 2 0 3 0 0 3 0 3 3 1 3 1 2 0 0 3 2 0 3 3
+ 0 3 3 2 4 0 2 4 3 3 0 3 0 0 3 3 2 2 4 3 2 3 3 4 3 4 0 2 4 3 0 2 0 4 3 2 3
+ 0 1 2 3 0 2 4 0 3 0 0 2 3 4 3 3 3 2 3 3 3 3 3 0 4 0 2 4 0 1 3 0 3 3 3 3 3
+ 0 3 3 3 0 0 0 2 3 3 0 4 0 0 0 0 4 1 3 3 0 4 3 3 3 0 0 2 0 2 3 3 3 0 3 0 4
+ 0 0 3 0 2 0 0 2 3 3 0 3 3 3 3 3 3 4 0 2 0 3 0 3 3 3 0 0 3 4 0 0 4 0 3 3 3
+ 3 0 0 3 3 4 3 3 3 1 3 3 0 0 3 0 3 0 0 4 0 3 2 0 3 0 1 0 0 0 0 3 3 3 1 0 4
+ 0 3 0 3 2 3 4 2 3 3 0 3 3 3 0 3 0 3 3 0 4 2 3 0 0 3 3 3 0 0 0 1 0 3 3 0 0
+ 4 0 0 4 0 2 3 4 0 0 2 1 3 3 3 4 1 3 3 0 0 0 2 0 0 0 3 3 3 2 2 1 3 0 2 3 1
+ 3 4 3 2 3 3 4 3 3 0 3 2 3 2 0 3 2 3 3 3 3 0 4 0 1 4 2 3 0 3 0 3 3 2 4 3 0
+ 4 3 0 0 3 0 2 0 4 0 3 2 3 3 1 3 0 2 3 0 3 3 2 3 4 4 3 3 2 0 4 4 4 3 0 3 3
+ 3 0 3 4 0 3 3 3 0 0 0 4 1 3 2 3 3 4 4 2 3 0 0 2 3 1 3 3 0 3 3 3 0 0 3 3 0
+ 2 1 3 3 0 0 3 3 0 3 3 3 3 2 3 1 3 2 4 4 0 3 3 3 3 3 4 3 0 3 0 0 3 2 0 3 3
+ 0 3 3 3 0 0 0 0 0 2 3 0 0 3 4 0 2 3 0]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 3 1 3]</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>0.2096795530564023</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>1.491659739677254</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>88.14680624912756</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>0.2113862504882753</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1.518861551844353</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>632.554901191589</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1173,7 +1488,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[0 2 4 ... 4 0 0]</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1187,26 +1502,47 @@
           <t>n_init=50, max_iter=100</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[0 0 2 2 4 0 0 4 1 1 0 2 0 1 0 0 0 4 1 4 0 1 0 0 4 4 0 4 0 0 4 4 0 0 2 0 0
+ 2 0 0 4 0 0 2 0 0 0 3 0 2 0 4 0 0 1 4 0 4 4 0 4 0 0 4 0 3 1 4 4 0 1 4 0 0
+ 4 0 0 1 2 4 1 2 0 0 4 0 4 4 0 0 1 1 2 0 1 0 0 2 0 2 4 1 2 2 4 1 0 2 0 1 0
+ 4 3 1 0 4 1 4 4 0 4 4 1 0 2 0 0 0 1 0 0 0 0 0 4 2 4 1 2 4 3 0 4 0 0 0 0 0
+ 4 0 0 0 4 4 4 1 0 0 4 2 4 4 4 4 2 3 0 0 4 2 0 0 0 4 0 1 4 1 0 0 0 4 0 4 2
+ 4 0 0 0 1 4 4 1 0 0 4 0 0 0 0 0 0 2 4 1 0 0 4 0 0 0 4 4 0 2 4 4 2 4 0 0 0
+ 0 4 4 0 0 2 0 0 0 3 0 0 4 4 0 4 0 4 4 2 4 0 1 4 0 4 3 4 4 4 4 0 0 0 3 4 2
+ 4 0 4 2 1 0 2 1 0 0 4 0 0 0 4 0 4 0 0 4 2 1 0 4 4 0 0 0 4 4 4 3 4 0 0 4 4
+ 2 4 4 2 4 1 0 2 4 4 1 3 0 0 0 2 3 0 0 4 4 4 1 4 4 4 0 0 0 1 1 4 0 0 1 0 3
+ 0 2 0 1 0 0 2 0 0 4 0 1 0 1 4 0 1 0 0 0 0 4 2 4 3 2 1 0 4 0 4 0 0 1 2 0 4
+ 2 0 4 4 0 4 1 4 2 4 0 1 0 0 3 0 4 1 0 4 0 0 1 0 2 2 0 0 1 4 2 2 4 0 4 0 2
+ 0 4 0 2 4 0 0 0 4 4 4 2 3 0 1 0 0 2 2 1 0 4 0 1 0 3 0 0 4 0 0 0 4 4 0 0 4
+ 1 3 0 0 4 4 0 0 4 0 0 0 0 1 0 3 0 1 2 2 4 0 0 0 0 0 2 0 4 0 4 4 0 1 4 0 0
+ 4 0 0 0 4 4 4 4 4 1 0 0 4 0 2 4 1 0 0]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 0 3 0]</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>0.2172751692731377</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>1.478572172408568</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>88.40792153757359</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>0.2140491424996223</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1.516215263884189</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>633.5944224820212</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1217,7 +1553,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[0 2 4 ... 4 0 0]</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1231,26 +1567,47 @@
           <t>n_init=50, max_iter=300</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[0 0 2 2 4 0 0 4 1 1 0 2 0 1 0 0 0 4 1 4 0 1 0 0 4 4 0 4 0 0 4 4 0 0 2 0 0
+ 2 0 0 4 0 0 2 0 0 0 3 0 2 0 4 0 0 1 4 0 4 4 0 4 0 0 4 0 3 1 4 4 0 1 4 0 0
+ 4 0 0 1 2 4 1 2 0 0 4 0 4 4 0 0 1 1 2 0 1 0 0 2 0 2 4 1 2 2 4 1 0 2 0 1 0
+ 4 3 1 0 4 1 4 4 0 4 4 1 0 2 0 0 0 1 0 0 0 0 0 4 2 4 1 2 4 3 0 4 0 0 0 0 0
+ 4 0 0 0 4 4 4 1 0 0 4 2 4 4 4 4 2 3 0 0 4 2 0 0 0 4 0 1 4 1 0 0 0 4 0 4 2
+ 4 0 0 0 1 4 4 1 0 0 4 0 0 0 0 0 0 2 4 1 0 0 4 0 0 0 4 4 0 2 4 4 2 4 0 0 0
+ 0 4 4 0 0 2 0 0 0 3 0 0 4 4 0 4 0 4 4 2 4 0 1 4 0 4 3 4 4 4 4 0 0 0 3 4 2
+ 4 0 4 2 1 0 2 1 0 0 4 0 0 0 4 0 4 0 0 4 2 1 0 4 4 0 0 0 4 4 4 3 4 0 0 4 4
+ 2 4 4 2 4 1 0 2 4 4 1 3 0 0 0 2 3 0 0 4 4 4 1 4 4 4 0 0 0 1 1 4 0 0 1 0 3
+ 0 2 0 1 0 0 2 0 0 4 0 1 0 1 4 0 1 0 0 0 0 4 2 4 3 2 1 0 4 0 4 0 0 1 2 0 4
+ 2 0 4 4 0 4 1 4 2 4 0 1 0 0 3 0 4 1 0 4 0 0 1 0 2 2 0 0 1 4 2 2 4 0 4 0 2
+ 0 4 0 2 4 0 0 0 4 4 4 2 3 0 1 0 0 2 2 1 0 4 0 1 0 3 0 0 4 0 0 0 4 4 0 0 4
+ 1 3 0 0 4 4 0 0 4 0 0 0 0 1 0 3 0 1 2 2 4 0 0 0 0 0 2 0 4 0 4 4 0 1 4 0 0
+ 4 0 0 0 4 4 4 4 4 1 0 0 4 0 2 4 1 0 0]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 0 3 0]</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>0.2172751692731377</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>1.478572172408568</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>88.40792153757359</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>0.2140491424996223</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1.516215263884189</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>633.5944224820212</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1261,7 +1618,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[0 2 4 ... 4 0 0]</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1275,26 +1632,47 @@
           <t>n_init=50, max_iter=600</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[0 0 2 2 4 0 0 4 1 1 0 2 0 1 0 0 0 4 1 4 0 1 0 0 4 4 0 4 0 0 4 4 0 0 2 0 0
+ 2 0 0 4 0 0 2 0 0 0 3 0 2 0 4 0 0 1 4 0 4 4 0 4 0 0 4 0 3 1 4 4 0 1 4 0 0
+ 4 0 0 1 2 4 1 2 0 0 4 0 4 4 0 0 1 1 2 0 1 0 0 2 0 2 4 1 2 2 4 1 0 2 0 1 0
+ 4 3 1 0 4 1 4 4 0 4 4 1 0 2 0 0 0 1 0 0 0 0 0 4 2 4 1 2 4 3 0 4 0 0 0 0 0
+ 4 0 0 0 4 4 4 1 0 0 4 2 4 4 4 4 2 3 0 0 4 2 0 0 0 4 0 1 4 1 0 0 0 4 0 4 2
+ 4 0 0 0 1 4 4 1 0 0 4 0 0 0 0 0 0 2 4 1 0 0 4 0 0 0 4 4 0 2 4 4 2 4 0 0 0
+ 0 4 4 0 0 2 0 0 0 3 0 0 4 4 0 4 0 4 4 2 4 0 1 4 0 4 3 4 4 4 4 0 0 0 3 4 2
+ 4 0 4 2 1 0 2 1 0 0 4 0 0 0 4 0 4 0 0 4 2 1 0 4 4 0 0 0 4 4 4 3 4 0 0 4 4
+ 2 4 4 2 4 1 0 2 4 4 1 3 0 0 0 2 3 0 0 4 4 4 1 4 4 4 0 0 0 1 1 4 0 0 1 0 3
+ 0 2 0 1 0 0 2 0 0 4 0 1 0 1 4 0 1 0 0 0 0 4 2 4 3 2 1 0 4 0 4 0 0 1 2 0 4
+ 2 0 4 4 0 4 1 4 2 4 0 1 0 0 3 0 4 1 0 4 0 0 1 0 2 2 0 0 1 4 2 2 4 0 4 0 2
+ 0 4 0 2 4 0 0 0 4 4 4 2 3 0 1 0 0 2 2 1 0 4 0 1 0 3 0 0 4 0 0 0 4 4 0 0 4
+ 1 3 0 0 4 4 0 0 4 0 0 0 0 1 0 3 0 1 2 2 4 0 0 0 0 0 2 0 4 0 4 4 0 1 4 0 0
+ 4 0 0 0 4 4 4 4 4 1 0 0 4 0 2 4 1 0 0]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 0 3 0]</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>0.2172751692731377</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>1.478572172408568</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>88.40792153757359</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>0.2140491424996223</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1.516215263884189</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>633.5944224820212</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1305,7 +1683,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 5 4]</t>
+          <t>[0 3 4 ... 4 4 0]</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1319,26 +1697,47 @@
           <t>n_init=10, max_iter=100</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[0 0 6 3 4 0 0 4 2 2 0 3 0 2 0 0 0 4 2 4 0 2 0 0 4 4 0 4 0 0 4 4 0 3 3 0 3
+ 3 0 0 4 0 3 3 0 3 0 1 0 3 0 4 0 0 2 4 0 4 4 0 4 0 0 1 0 1 2 4 4 0 2 4 0 0
+ 4 3 3 2 3 4 2 3 0 0 4 0 4 4 3 0 2 2 3 0 2 0 3 3 0 3 4 2 3 3 4 2 0 3 0 2 0
+ 4 1 2 0 4 2 4 4 0 4 4 2 0 3 0 0 3 2 0 3 0 0 0 4 3 4 2 5 4 1 0 4 0 0 0 0 0
+ 4 0 0 0 4 4 4 2 0 0 4 3 4 4 4 4 6 1 0 3 4 3 0 5 0 4 0 2 4 2 0 0 0 4 0 4 3
+ 4 0 0 0 2 4 4 2 0 3 4 0 0 0 0 3 0 3 4 2 0 0 4 0 0 0 4 4 0 3 4 4 3 4 0 0 0
+ 0 4 4 0 3 3 3 0 0 1 0 0 4 4 0 4 0 4 4 3 4 0 2 4 0 4 1 4 4 4 4 0 0 0 1 4 3
+ 4 0 4 3 2 0 3 2 0 0 4 0 0 0 4 5 4 0 0 4 3 2 0 4 4 0 0 0 4 4 4 1 4 0 0 4 4
+ 3 4 4 3 4 2 0 3 4 4 2 1 0 0 0 3 1 3 0 4 4 4 2 4 4 4 0 0 0 2 2 4 0 0 2 0 1
+ 3 3 0 2 0 0 3 0 0 4 0 2 0 2 4 0 2 0 0 0 0 4 3 4 1 3 2 0 4 0 4 3 0 2 3 3 4
+ 3 0 4 3 0 4 2 4 6 4 0 2 0 0 1 0 4 2 0 4 3 0 2 0 3 3 0 0 2 4 3 6 4 0 4 0 3
+ 3 4 3 3 4 0 0 0 4 4 4 3 1 0 2 0 0 3 3 2 5 4 0 2 0 1 0 0 4 0 0 0 4 4 3 0 4
+ 2 1 0 3 5 4 0 0 4 0 3 0 0 2 0 1 3 2 3 3 4 3 0 0 0 0 5 0 4 0 4 4 0 2 4 0 0
+ 4 0 0 0 4 4 4 4 4 2 0 0 4 0 6 4 2 0 0]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 0 1 0]</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>0.214103248889541</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>1.361073104576797</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>78.10101960206092</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>0.2047296750510972</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1.454742902872873</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>488.1302274894962</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1349,7 +1748,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 5 4]</t>
+          <t>[0 3 4 ... 4 4 0]</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1363,26 +1762,47 @@
           <t>n_init=10, max_iter=300</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[0 0 6 3 4 0 0 4 2 2 0 3 0 2 0 0 0 4 2 4 0 2 0 0 4 4 0 4 0 0 4 4 0 3 3 0 3
+ 3 0 0 4 0 3 3 0 3 0 1 0 3 0 4 0 0 2 4 0 4 4 0 4 0 0 1 0 1 2 4 4 0 2 4 0 0
+ 4 3 3 2 3 4 2 3 0 0 4 0 4 4 3 0 2 2 3 0 2 0 3 3 0 3 4 2 3 3 4 2 0 3 0 2 0
+ 4 1 2 0 4 2 4 4 0 4 4 2 0 3 0 0 3 2 0 3 0 0 0 4 3 4 2 5 4 1 0 4 0 0 0 0 0
+ 4 0 0 0 4 4 4 2 0 0 4 3 4 4 4 4 6 1 0 3 4 3 0 5 0 4 0 2 4 2 0 0 0 4 0 4 3
+ 4 0 0 0 2 4 4 2 0 3 4 0 0 0 0 3 0 3 4 2 0 0 4 0 0 0 4 4 0 3 4 4 3 4 0 0 0
+ 0 4 4 0 3 3 3 0 0 1 0 0 4 4 0 4 0 4 4 3 4 0 2 4 0 4 1 4 4 4 4 0 0 0 1 4 3
+ 4 0 4 3 2 0 3 2 0 0 4 0 0 0 4 5 4 0 0 4 3 2 0 4 4 0 0 0 4 4 4 1 4 0 0 4 4
+ 3 4 4 3 4 2 0 3 4 4 2 1 0 0 0 3 1 3 0 4 4 4 2 4 4 4 0 0 0 2 2 4 0 0 2 0 1
+ 3 3 0 2 0 0 3 0 0 4 0 2 0 2 4 0 2 0 0 0 0 4 3 4 1 3 2 0 4 0 4 3 0 2 3 3 4
+ 3 0 4 3 0 4 2 4 6 4 0 2 0 0 1 0 4 2 0 4 3 0 2 0 3 3 0 0 2 4 3 6 4 0 4 0 3
+ 3 4 3 3 4 0 0 0 4 4 4 3 1 0 2 0 0 3 3 2 5 4 0 2 0 1 0 0 4 0 0 0 4 4 3 0 4
+ 2 1 0 3 5 4 0 0 4 0 3 0 0 2 0 1 3 2 3 3 4 3 0 0 0 0 5 0 4 0 4 4 0 2 4 0 0
+ 4 0 0 0 4 4 4 4 4 2 0 0 4 0 6 4 2 0 0]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 0 1 0]</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>0.214103248889541</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>1.361073104576797</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>78.10101960206092</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>0.2047296750510972</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1.454742902872873</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>488.1302274894962</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1393,7 +1813,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 5 4]</t>
+          <t>[0 3 4 ... 4 4 0]</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1407,26 +1827,47 @@
           <t>n_init=10, max_iter=600</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[0 0 6 3 4 0 0 4 2 2 0 3 0 2 0 0 0 4 2 4 0 2 0 0 4 4 0 4 0 0 4 4 0 3 3 0 3
+ 3 0 0 4 0 3 3 0 3 0 1 0 3 0 4 0 0 2 4 0 4 4 0 4 0 0 1 0 1 2 4 4 0 2 4 0 0
+ 4 3 3 2 3 4 2 3 0 0 4 0 4 4 3 0 2 2 3 0 2 0 3 3 0 3 4 2 3 3 4 2 0 3 0 2 0
+ 4 1 2 0 4 2 4 4 0 4 4 2 0 3 0 0 3 2 0 3 0 0 0 4 3 4 2 5 4 1 0 4 0 0 0 0 0
+ 4 0 0 0 4 4 4 2 0 0 4 3 4 4 4 4 6 1 0 3 4 3 0 5 0 4 0 2 4 2 0 0 0 4 0 4 3
+ 4 0 0 0 2 4 4 2 0 3 4 0 0 0 0 3 0 3 4 2 0 0 4 0 0 0 4 4 0 3 4 4 3 4 0 0 0
+ 0 4 4 0 3 3 3 0 0 1 0 0 4 4 0 4 0 4 4 3 4 0 2 4 0 4 1 4 4 4 4 0 0 0 1 4 3
+ 4 0 4 3 2 0 3 2 0 0 4 0 0 0 4 5 4 0 0 4 3 2 0 4 4 0 0 0 4 4 4 1 4 0 0 4 4
+ 3 4 4 3 4 2 0 3 4 4 2 1 0 0 0 3 1 3 0 4 4 4 2 4 4 4 0 0 0 2 2 4 0 0 2 0 1
+ 3 3 0 2 0 0 3 0 0 4 0 2 0 2 4 0 2 0 0 0 0 4 3 4 1 3 2 0 4 0 4 3 0 2 3 3 4
+ 3 0 4 3 0 4 2 4 6 4 0 2 0 0 1 0 4 2 0 4 3 0 2 0 3 3 0 0 2 4 3 6 4 0 4 0 3
+ 3 4 3 3 4 0 0 0 4 4 4 3 1 0 2 0 0 3 3 2 5 4 0 2 0 1 0 0 4 0 0 0 4 4 3 0 4
+ 2 1 0 3 5 4 0 0 4 0 3 0 0 2 0 1 3 2 3 3 4 3 0 0 0 0 5 0 4 0 4 4 0 2 4 0 0
+ 4 0 0 0 4 4 4 4 4 2 0 0 4 0 6 4 2 0 0]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 0 1 0]</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>0.214103248889541</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>1.361073104576797</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>78.10101960206092</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>0.2047296750510972</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1.454742902872873</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>488.1302274894962</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1437,7 +1878,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[1 4 5 ... 5 5 0]</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1451,26 +1892,47 @@
           <t>n_init=20, max_iter=100</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[1 0 3 4 5 1 0 5 2 2 0 4 0 2 0 1 0 5 2 0 0 2 0 1 5 5 1 5 0 1 5 5 1 4 4 0 4
+ 4 1 1 5 1 4 4 1 4 0 6 0 4 1 5 1 0 2 5 1 5 5 1 5 0 0 5 0 6 2 5 5 0 2 5 0 1
+ 5 0 4 2 4 5 2 4 1 1 5 1 5 5 0 0 2 2 4 0 2 1 4 4 0 4 5 2 4 4 5 2 1 4 0 2 0
+ 1 6 2 1 5 2 5 5 0 5 5 2 0 4 1 1 0 2 1 0 1 0 0 5 4 1 2 4 5 6 0 1 0 1 0 0 0
+ 5 0 1 1 5 1 5 2 0 0 5 4 5 5 5 5 3 6 0 4 5 4 1 0 1 5 1 2 5 2 0 0 0 5 1 5 4
+ 5 1 1 1 2 5 5 2 1 0 1 0 0 1 0 4 0 4 5 2 1 1 5 1 0 1 5 5 0 4 5 5 4 5 0 0 0
+ 0 5 5 1 0 4 0 1 0 6 0 1 5 5 0 5 1 5 5 4 5 1 2 5 1 5 6 5 5 5 5 0 1 1 6 5 4
+ 5 1 5 4 2 1 4 2 0 1 1 0 0 0 5 0 5 0 0 5 4 2 1 0 5 0 0 0 5 5 5 6 5 0 0 5 5
+ 4 5 5 4 1 2 0 4 5 5 2 6 1 0 0 4 6 4 1 5 5 5 2 5 5 5 1 0 0 2 2 5 1 1 2 0 6
+ 4 4 1 2 1 1 4 0 0 1 0 2 0 2 5 0 2 0 0 0 0 1 4 5 6 4 2 1 5 0 5 4 0 2 4 0 5
+ 4 0 5 5 0 5 2 5 3 5 0 2 1 1 6 1 5 2 0 5 1 0 2 1 4 4 1 0 2 5 4 3 5 0 1 1 4
+ 0 5 4 4 5 0 0 1 5 5 5 4 6 0 2 0 1 4 4 2 0 5 1 2 1 6 1 1 5 0 0 1 5 5 0 1 5
+ 2 6 0 4 5 5 0 0 5 1 4 0 0 2 0 6 4 2 4 4 5 4 0 0 1 1 4 1 5 0 5 5 0 2 5 0 0
+ 5 1 1 0 5 5 5 5 5 2 1 1 5 1 3 5 2 0 1]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 6 1]</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>0.183807105542777</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>1.447896925463785</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>80.70270316551822</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>0.1785818019458517</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1.540682218251224</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>509.9524962332526</v>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1481,7 +1943,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[1 4 5 ... 5 5 0]</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1495,26 +1957,47 @@
           <t>n_init=20, max_iter=300</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[1 0 3 4 5 1 0 5 2 2 0 4 0 2 0 1 0 5 2 0 0 2 0 1 5 5 1 5 0 1 5 5 1 4 4 0 4
+ 4 1 1 5 1 4 4 1 4 0 6 0 4 1 5 1 0 2 5 1 5 5 1 5 0 0 5 0 6 2 5 5 0 2 5 0 1
+ 5 0 4 2 4 5 2 4 1 1 5 1 5 5 0 0 2 2 4 0 2 1 4 4 0 4 5 2 4 4 5 2 1 4 0 2 0
+ 1 6 2 1 5 2 5 5 0 5 5 2 0 4 1 1 0 2 1 0 1 0 0 5 4 1 2 4 5 6 0 1 0 1 0 0 0
+ 5 0 1 1 5 1 5 2 0 0 5 4 5 5 5 5 3 6 0 4 5 4 1 0 1 5 1 2 5 2 0 0 0 5 1 5 4
+ 5 1 1 1 2 5 5 2 1 0 1 0 0 1 0 4 0 4 5 2 1 1 5 1 0 1 5 5 0 4 5 5 4 5 0 0 0
+ 0 5 5 1 0 4 0 1 0 6 0 1 5 5 0 5 1 5 5 4 5 1 2 5 1 5 6 5 5 5 5 0 1 1 6 5 4
+ 5 1 5 4 2 1 4 2 0 1 1 0 0 0 5 0 5 0 0 5 4 2 1 0 5 0 0 0 5 5 5 6 5 0 0 5 5
+ 4 5 5 4 1 2 0 4 5 5 2 6 1 0 0 4 6 4 1 5 5 5 2 5 5 5 1 0 0 2 2 5 1 1 2 0 6
+ 4 4 1 2 1 1 4 0 0 1 0 2 0 2 5 0 2 0 0 0 0 1 4 5 6 4 2 1 5 0 5 4 0 2 4 0 5
+ 4 0 5 5 0 5 2 5 3 5 0 2 1 1 6 1 5 2 0 5 1 0 2 1 4 4 1 0 2 5 4 3 5 0 1 1 4
+ 0 5 4 4 5 0 0 1 5 5 5 4 6 0 2 0 1 4 4 2 0 5 1 2 1 6 1 1 5 0 0 1 5 5 0 1 5
+ 2 6 0 4 5 5 0 0 5 1 4 0 0 2 0 6 4 2 4 4 5 4 0 0 1 1 4 1 5 0 5 5 0 2 5 0 0
+ 5 1 1 0 5 5 5 5 5 2 1 1 5 1 3 5 2 0 1]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 6 1]</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>0.183807105542777</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>1.447896925463785</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>80.70270316551822</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>0.1785818019458517</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1.540682218251224</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>509.9524962332526</v>
       </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1525,7 +2008,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[1 4 5 ... 5 5 0]</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1539,26 +2022,47 @@
           <t>n_init=20, max_iter=600</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[1 0 3 4 5 1 0 5 2 2 0 4 0 2 0 1 0 5 2 0 0 2 0 1 5 5 1 5 0 1 5 5 1 4 4 0 4
+ 4 1 1 5 1 4 4 1 4 0 6 0 4 1 5 1 0 2 5 1 5 5 1 5 0 0 5 0 6 2 5 5 0 2 5 0 1
+ 5 0 4 2 4 5 2 4 1 1 5 1 5 5 0 0 2 2 4 0 2 1 4 4 0 4 5 2 4 4 5 2 1 4 0 2 0
+ 1 6 2 1 5 2 5 5 0 5 5 2 0 4 1 1 0 2 1 0 1 0 0 5 4 1 2 4 5 6 0 1 0 1 0 0 0
+ 5 0 1 1 5 1 5 2 0 0 5 4 5 5 5 5 3 6 0 4 5 4 1 0 1 5 1 2 5 2 0 0 0 5 1 5 4
+ 5 1 1 1 2 5 5 2 1 0 1 0 0 1 0 4 0 4 5 2 1 1 5 1 0 1 5 5 0 4 5 5 4 5 0 0 0
+ 0 5 5 1 0 4 0 1 0 6 0 1 5 5 0 5 1 5 5 4 5 1 2 5 1 5 6 5 5 5 5 0 1 1 6 5 4
+ 5 1 5 4 2 1 4 2 0 1 1 0 0 0 5 0 5 0 0 5 4 2 1 0 5 0 0 0 5 5 5 6 5 0 0 5 5
+ 4 5 5 4 1 2 0 4 5 5 2 6 1 0 0 4 6 4 1 5 5 5 2 5 5 5 1 0 0 2 2 5 1 1 2 0 6
+ 4 4 1 2 1 1 4 0 0 1 0 2 0 2 5 0 2 0 0 0 0 1 4 5 6 4 2 1 5 0 5 4 0 2 4 0 5
+ 4 0 5 5 0 5 2 5 3 5 0 2 1 1 6 1 5 2 0 5 1 0 2 1 4 4 1 0 2 5 4 3 5 0 1 1 4
+ 0 5 4 4 5 0 0 1 5 5 5 4 6 0 2 0 1 4 4 2 0 5 1 2 1 6 1 1 5 0 0 1 5 5 0 1 5
+ 2 6 0 4 5 5 0 0 5 1 4 0 0 2 0 6 4 2 4 4 5 4 0 0 1 1 4 1 5 0 5 5 0 2 5 0 0
+ 5 1 1 0 5 5 5 5 5 2 1 1 5 1 3 5 2 0 1]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 6 1]</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>0.183807105542777</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>1.447896925463785</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>80.70270316551822</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>0.1785818019458517</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1.540682218251224</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>509.9524962332526</v>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1569,7 +2073,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[1 4 5 ... 5 5 0]</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1583,26 +2087,47 @@
           <t>n_init=50, max_iter=100</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[1 0 3 4 5 1 0 5 2 2 0 4 0 2 0 1 0 5 2 0 0 2 0 1 5 5 1 5 0 1 5 5 1 4 4 0 4
+ 4 1 1 5 1 4 4 1 4 0 6 0 4 1 5 1 0 2 5 1 5 5 1 5 0 0 5 0 6 2 5 5 0 2 5 0 1
+ 5 0 4 2 4 5 2 4 1 1 5 1 5 5 0 0 2 2 4 0 2 1 4 4 0 4 5 2 4 4 5 2 1 4 0 2 0
+ 1 6 2 1 5 2 5 5 0 5 5 2 0 4 1 1 0 2 1 0 1 0 0 5 4 1 2 4 5 6 0 1 0 1 0 0 0
+ 5 0 1 1 5 1 5 2 0 0 5 4 5 5 5 5 3 6 0 4 5 4 1 0 1 5 1 2 5 2 0 0 0 5 1 5 4
+ 5 1 1 1 2 5 5 2 1 0 1 0 0 1 0 4 0 4 5 2 1 1 5 1 0 1 5 5 0 4 5 5 4 5 0 0 0
+ 0 5 5 1 0 4 0 1 0 6 0 1 5 5 0 5 1 5 5 4 5 1 2 5 1 5 6 5 5 5 5 0 1 1 6 5 4
+ 5 1 5 4 2 1 4 2 0 1 1 0 0 0 5 0 5 0 0 5 4 2 1 0 5 0 0 0 5 5 5 6 5 0 0 5 5
+ 4 5 5 4 1 2 0 4 5 5 2 6 1 0 0 4 6 4 1 5 5 5 2 5 5 5 1 0 0 2 2 5 1 1 2 0 6
+ 4 4 1 2 1 1 4 0 0 1 0 2 0 2 5 0 2 0 0 0 0 1 4 5 6 4 2 1 5 0 5 4 0 2 4 0 5
+ 4 0 5 5 0 5 2 5 3 5 0 2 1 1 6 1 5 2 0 5 1 0 2 1 4 4 1 0 2 5 4 3 5 0 1 1 4
+ 0 5 4 4 5 0 0 1 5 5 5 4 6 0 2 0 1 4 4 2 0 5 1 2 1 6 1 1 5 0 0 1 5 5 0 1 5
+ 2 6 0 4 5 5 0 0 5 1 4 0 0 2 0 6 4 2 4 4 5 4 0 0 1 1 4 1 5 0 5 5 0 2 5 0 0
+ 5 1 1 0 5 5 5 5 5 2 1 1 5 1 3 5 2 0 1]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 6 1]</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>0.183807105542777</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>1.447896925463785</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>80.70270316551822</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>0.1785818019458517</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1.540682218251224</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>509.9524962332526</v>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1613,7 +2138,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[1 4 5 ... 5 5 0]</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1627,26 +2152,47 @@
           <t>n_init=50, max_iter=300</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[1 0 3 4 5 1 0 5 2 2 0 4 0 2 0 1 0 5 2 0 0 2 0 1 5 5 1 5 0 1 5 5 1 4 4 0 4
+ 4 1 1 5 1 4 4 1 4 0 6 0 4 1 5 1 0 2 5 1 5 5 1 5 0 0 5 0 6 2 5 5 0 2 5 0 1
+ 5 0 4 2 4 5 2 4 1 1 5 1 5 5 0 0 2 2 4 0 2 1 4 4 0 4 5 2 4 4 5 2 1 4 0 2 0
+ 1 6 2 1 5 2 5 5 0 5 5 2 0 4 1 1 0 2 1 0 1 0 0 5 4 1 2 4 5 6 0 1 0 1 0 0 0
+ 5 0 1 1 5 1 5 2 0 0 5 4 5 5 5 5 3 6 0 4 5 4 1 0 1 5 1 2 5 2 0 0 0 5 1 5 4
+ 5 1 1 1 2 5 5 2 1 0 1 0 0 1 0 4 0 4 5 2 1 1 5 1 0 1 5 5 0 4 5 5 4 5 0 0 0
+ 0 5 5 1 0 4 0 1 0 6 0 1 5 5 0 5 1 5 5 4 5 1 2 5 1 5 6 5 5 5 5 0 1 1 6 5 4
+ 5 1 5 4 2 1 4 2 0 1 1 0 0 0 5 0 5 0 0 5 4 2 1 0 5 0 0 0 5 5 5 6 5 0 0 5 5
+ 4 5 5 4 1 2 0 4 5 5 2 6 1 0 0 4 6 4 1 5 5 5 2 5 5 5 1 0 0 2 2 5 1 1 2 0 6
+ 4 4 1 2 1 1 4 0 0 1 0 2 0 2 5 0 2 0 0 0 0 1 4 5 6 4 2 1 5 0 5 4 0 2 4 0 5
+ 4 0 5 5 0 5 2 5 3 5 0 2 1 1 6 1 5 2 0 5 1 0 2 1 4 4 1 0 2 5 4 3 5 0 1 1 4
+ 0 5 4 4 5 0 0 1 5 5 5 4 6 0 2 0 1 4 4 2 0 5 1 2 1 6 1 1 5 0 0 1 5 5 0 1 5
+ 2 6 0 4 5 5 0 0 5 1 4 0 0 2 0 6 4 2 4 4 5 4 0 0 1 1 4 1 5 0 5 5 0 2 5 0 0
+ 5 1 1 0 5 5 5 5 5 2 1 1 5 1 3 5 2 0 1]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 6 1]</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>0.183807105542777</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>1.447896925463785</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>80.70270316551822</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>0.1785818019458517</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1.540682218251224</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>509.9524962332526</v>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1657,7 +2203,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[1 4 5 ... 5 5 0]</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1671,26 +2217,47 @@
           <t>n_init=50, max_iter=600</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[1 0 3 4 5 1 0 5 2 2 0 4 0 2 0 1 0 5 2 0 0 2 0 1 5 5 1 5 0 1 5 5 1 4 4 0 4
+ 4 1 1 5 1 4 4 1 4 0 6 0 4 1 5 1 0 2 5 1 5 5 1 5 0 0 5 0 6 2 5 5 0 2 5 0 1
+ 5 0 4 2 4 5 2 4 1 1 5 1 5 5 0 0 2 2 4 0 2 1 4 4 0 4 5 2 4 4 5 2 1 4 0 2 0
+ 1 6 2 1 5 2 5 5 0 5 5 2 0 4 1 1 0 2 1 0 1 0 0 5 4 1 2 4 5 6 0 1 0 1 0 0 0
+ 5 0 1 1 5 1 5 2 0 0 5 4 5 5 5 5 3 6 0 4 5 4 1 0 1 5 1 2 5 2 0 0 0 5 1 5 4
+ 5 1 1 1 2 5 5 2 1 0 1 0 0 1 0 4 0 4 5 2 1 1 5 1 0 1 5 5 0 4 5 5 4 5 0 0 0
+ 0 5 5 1 0 4 0 1 0 6 0 1 5 5 0 5 1 5 5 4 5 1 2 5 1 5 6 5 5 5 5 0 1 1 6 5 4
+ 5 1 5 4 2 1 4 2 0 1 1 0 0 0 5 0 5 0 0 5 4 2 1 0 5 0 0 0 5 5 5 6 5 0 0 5 5
+ 4 5 5 4 1 2 0 4 5 5 2 6 1 0 0 4 6 4 1 5 5 5 2 5 5 5 1 0 0 2 2 5 1 1 2 0 6
+ 4 4 1 2 1 1 4 0 0 1 0 2 0 2 5 0 2 0 0 0 0 1 4 5 6 4 2 1 5 0 5 4 0 2 4 0 5
+ 4 0 5 5 0 5 2 5 3 5 0 2 1 1 6 1 5 2 0 5 1 0 2 1 4 4 1 0 2 5 4 3 5 0 1 1 4
+ 0 5 4 4 5 0 0 1 5 5 5 4 6 0 2 0 1 4 4 2 0 5 1 2 1 6 1 1 5 0 0 1 5 5 0 1 5
+ 2 6 0 4 5 5 0 0 5 1 4 0 0 2 0 6 4 2 4 4 5 4 0 0 1 1 4 1 5 0 5 5 0 2 5 0 0
+ 5 1 1 0 5 5 5 5 5 2 1 1 5 1 3 5 2 0 1]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 6 1]</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>0.183807105542777</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>1.447896925463785</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>80.70270316551822</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>0.1785818019458517</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1.540682218251224</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>509.9524962332526</v>
       </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1701,7 +2268,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[1 3 5 ... 5 5 4]</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1715,26 +2282,47 @@
           <t>n_init=10, max_iter=100</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[1 4 2 3 5 1 4 5 6 6 4 3 4 6 4 4 4 5 6 4 4 6 4 4 5 7 1 5 4 1 5 7 1 3 3 4 3
+ 3 1 1 5 1 3 7 1 3 4 0 4 3 4 5 1 4 6 5 4 7 5 1 5 4 4 0 4 0 6 0 5 4 6 5 4 4
+ 5 3 3 6 3 5 6 3 1 1 5 1 4 5 4 4 6 6 7 1 6 1 3 3 4 3 5 6 7 3 5 6 1 3 4 6 4
+ 5 0 6 4 5 6 7 7 4 7 5 6 4 3 4 1 3 6 1 3 1 4 4 5 3 5 6 7 5 0 4 1 4 1 4 4 4
+ 5 4 1 5 5 5 5 6 4 4 5 3 5 5 5 5 2 0 4 3 5 3 1 7 1 5 5 6 5 6 4 4 4 0 4 7 7
+ 5 1 1 1 6 5 5 6 1 3 5 4 4 4 4 3 4 3 5 6 5 1 5 4 4 1 5 5 4 7 5 5 3 5 4 4 4
+ 4 5 0 4 3 3 3 4 4 0 4 4 5 7 4 5 4 5 5 7 5 1 6 5 1 5 0 5 5 7 5 4 1 1 0 5 3
+ 5 1 7 3 6 1 3 6 4 1 5 3 4 4 5 7 5 4 4 5 3 6 1 4 5 4 4 4 5 5 5 0 5 4 4 5 5
+ 3 5 5 3 1 6 4 3 5 5 6 0 1 4 4 3 8 3 1 7 5 7 6 0 5 0 1 4 4 6 6 0 1 5 6 4 8
+ 3 3 1 6 4 1 7 3 4 5 4 6 4 6 5 4 6 4 4 4 4 1 3 7 0 3 6 1 7 4 7 3 4 6 3 3 5
+ 3 4 5 7 4 5 6 4 8 5 4 6 1 1 0 1 5 6 4 5 3 4 6 1 3 3 4 4 6 5 3 2 7 4 5 1 3
+ 3 5 3 7 5 4 4 4 5 7 5 3 0 4 6 4 1 3 3 6 4 5 1 6 5 0 4 4 5 4 4 1 5 7 3 1 5
+ 6 8 4 3 7 5 4 4 5 1 3 4 4 6 4 0 3 6 3 3 5 3 4 4 1 4 7 4 5 4 5 5 4 6 5 4 4
+ 7 1 1 4 5 5 5 0 5 6 1 1 7 1 2 5 6 4 1]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>[6 6 6 ... 4 0 4]</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>0.1950709150604621</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>1.474838734793141</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>72.62833166773764</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>0.1925078371255587</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1.558519631758384</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>471.9363264574735</v>
       </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1745,7 +2333,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[1 3 5 ... 5 5 4]</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1759,26 +2347,47 @@
           <t>n_init=10, max_iter=300</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[1 4 2 3 5 1 4 5 6 6 4 3 4 6 4 4 4 5 6 4 4 6 4 4 5 7 1 5 4 1 5 7 1 3 3 4 3
+ 3 1 1 5 1 3 7 1 3 4 0 4 3 4 5 1 4 6 5 4 7 5 1 5 4 4 0 4 0 6 0 5 4 6 5 4 4
+ 5 3 3 6 3 5 6 3 1 1 5 1 4 5 4 4 6 6 7 1 6 1 3 3 4 3 5 6 7 3 5 6 1 3 4 6 4
+ 5 0 6 4 5 6 7 7 4 7 5 6 4 3 4 1 3 6 1 3 1 4 4 5 3 5 6 7 5 0 4 1 4 1 4 4 4
+ 5 4 1 5 5 5 5 6 4 4 5 3 5 5 5 5 2 0 4 3 5 3 1 7 1 5 5 6 5 6 4 4 4 0 4 7 7
+ 5 1 1 1 6 5 5 6 1 3 5 4 4 4 4 3 4 3 5 6 5 1 5 4 4 1 5 5 4 7 5 5 3 5 4 4 4
+ 4 5 0 4 3 3 3 4 4 0 4 4 5 7 4 5 4 5 5 7 5 1 6 5 1 5 0 5 5 7 5 4 1 1 0 5 3
+ 5 1 7 3 6 1 3 6 4 1 5 3 4 4 5 7 5 4 4 5 3 6 1 4 5 4 4 4 5 5 5 0 5 4 4 5 5
+ 3 5 5 3 1 6 4 3 5 5 6 0 1 4 4 3 8 3 1 7 5 7 6 0 5 0 1 4 4 6 6 0 1 5 6 4 8
+ 3 3 1 6 4 1 7 3 4 5 4 6 4 6 5 4 6 4 4 4 4 1 3 7 0 3 6 1 7 4 7 3 4 6 3 3 5
+ 3 4 5 7 4 5 6 4 8 5 4 6 1 1 0 1 5 6 4 5 3 4 6 1 3 3 4 4 6 5 3 2 7 4 5 1 3
+ 3 5 3 7 5 4 4 4 5 7 5 3 0 4 6 4 1 3 3 6 4 5 1 6 5 0 4 4 5 4 4 1 5 7 3 1 5
+ 6 8 4 3 7 5 4 4 5 1 3 4 4 6 4 0 3 6 3 3 5 3 4 4 1 4 7 4 5 4 5 5 4 6 5 4 4
+ 7 1 1 4 5 5 5 0 5 6 1 1 7 1 2 5 6 4 1]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[6 6 6 ... 4 0 4]</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>0.1950709150604621</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>1.474838734793141</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>72.62833166773764</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>0.1925078371255587</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1.558519631758384</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>471.9363264574735</v>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1789,7 +2398,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[1 3 5 ... 5 5 4]</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1803,26 +2412,47 @@
           <t>n_init=10, max_iter=600</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[1 4 2 3 5 1 4 5 6 6 4 3 4 6 4 4 4 5 6 4 4 6 4 4 5 7 1 5 4 1 5 7 1 3 3 4 3
+ 3 1 1 5 1 3 7 1 3 4 0 4 3 4 5 1 4 6 5 4 7 5 1 5 4 4 0 4 0 6 0 5 4 6 5 4 4
+ 5 3 3 6 3 5 6 3 1 1 5 1 4 5 4 4 6 6 7 1 6 1 3 3 4 3 5 6 7 3 5 6 1 3 4 6 4
+ 5 0 6 4 5 6 7 7 4 7 5 6 4 3 4 1 3 6 1 3 1 4 4 5 3 5 6 7 5 0 4 1 4 1 4 4 4
+ 5 4 1 5 5 5 5 6 4 4 5 3 5 5 5 5 2 0 4 3 5 3 1 7 1 5 5 6 5 6 4 4 4 0 4 7 7
+ 5 1 1 1 6 5 5 6 1 3 5 4 4 4 4 3 4 3 5 6 5 1 5 4 4 1 5 5 4 7 5 5 3 5 4 4 4
+ 4 5 0 4 3 3 3 4 4 0 4 4 5 7 4 5 4 5 5 7 5 1 6 5 1 5 0 5 5 7 5 4 1 1 0 5 3
+ 5 1 7 3 6 1 3 6 4 1 5 3 4 4 5 7 5 4 4 5 3 6 1 4 5 4 4 4 5 5 5 0 5 4 4 5 5
+ 3 5 5 3 1 6 4 3 5 5 6 0 1 4 4 3 8 3 1 7 5 7 6 0 5 0 1 4 4 6 6 0 1 5 6 4 8
+ 3 3 1 6 4 1 7 3 4 5 4 6 4 6 5 4 6 4 4 4 4 1 3 7 0 3 6 1 7 4 7 3 4 6 3 3 5
+ 3 4 5 7 4 5 6 4 8 5 4 6 1 1 0 1 5 6 4 5 3 4 6 1 3 3 4 4 6 5 3 2 7 4 5 1 3
+ 3 5 3 7 5 4 4 4 5 7 5 3 0 4 6 4 1 3 3 6 4 5 1 6 5 0 4 4 5 4 4 1 5 7 3 1 5
+ 6 8 4 3 7 5 4 4 5 1 3 4 4 6 4 0 3 6 3 3 5 3 4 4 1 4 7 4 5 4 5 5 4 6 5 4 4
+ 7 1 1 4 5 5 5 0 5 6 1 1 7 1 2 5 6 4 1]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[6 6 6 ... 4 0 4]</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>0.1950709150604621</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>1.474838734793141</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>72.62833166773764</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
         <v>0.1925078371255587</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1.558519631758384</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>471.9363264574735</v>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1833,7 +2463,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[0 8 5 ... 5 7 2]</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1847,26 +2477,47 @@
           <t>n_init=20, max_iter=100</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[0 2 3 8 5 0 2 5 6 6 2 8 2 6 2 2 2 5 6 2 2 6 2 2 5 7 0 7 2 0 7 7 0 8 8 2 8
+ 8 0 0 5 0 8 8 0 8 2 1 2 8 0 5 0 2 6 5 2 7 7 0 5 2 2 7 2 1 6 7 5 2 6 5 2 2
+ 5 2 8 6 8 5 6 8 0 0 5 0 7 5 2 2 6 6 8 2 6 0 8 8 2 8 5 6 7 8 5 6 0 8 2 6 2
+ 5 1 6 2 5 6 7 7 2 7 7 6 2 8 2 0 2 6 0 2 0 2 2 5 8 5 6 8 5 1 2 0 2 0 2 2 2
+ 5 2 0 5 5 5 5 6 2 2 5 8 7 5 5 7 3 1 2 8 5 8 0 4 0 5 5 6 5 6 2 2 2 7 2 7 8
+ 5 0 0 0 6 5 7 6 0 2 5 2 2 2 2 8 2 8 7 6 5 0 5 2 2 0 2 5 2 8 7 5 8 5 2 2 2
+ 2 5 7 2 2 8 2 2 2 1 2 2 7 7 2 5 2 5 5 8 7 0 6 5 0 7 1 7 5 7 5 2 0 0 1 5 8
+ 5 0 7 8 6 0 8 6 2 0 5 2 2 2 5 4 5 2 2 7 8 6 0 2 2 2 2 2 7 5 5 7 5 2 2 5 7
+ 8 7 7 8 0 6 2 8 5 5 6 1 0 2 2 8 1 8 0 7 5 7 6 5 5 7 0 2 2 6 6 7 0 5 6 2 1
+ 8 8 0 6 0 0 8 2 2 5 2 6 2 6 5 2 6 2 2 2 2 0 8 7 1 8 6 0 7 2 7 8 2 6 8 2 5
+ 8 2 5 7 2 7 6 7 3 5 2 6 0 0 1 0 7 6 2 5 0 2 6 0 8 8 2 2 6 5 8 3 7 2 5 0 8
+ 2 7 8 8 5 2 2 2 5 7 5 8 1 2 6 2 0 8 8 6 4 5 0 6 5 7 2 0 5 2 2 0 5 7 2 0 5
+ 6 1 2 8 4 5 2 2 7 0 8 2 2 6 2 1 7 6 8 8 5 8 2 2 0 2 4 0 5 2 5 5 2 6 5 2 2
+ 7 0 0 2 5 5 5 7 7 6 0 0 7 0 3 7 6 2 0]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[6 6 6 ... 2 1 2]</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>0.1940829282682997</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>1.478437994075293</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>72.89474544408877</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>0.1817441673270314</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1.595632315280988</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>446.9338240300835</v>
       </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1877,7 +2528,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[0 8 5 ... 5 7 2]</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1891,26 +2542,47 @@
           <t>n_init=20, max_iter=300</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[0 2 3 8 5 0 2 5 6 6 2 8 2 6 2 2 2 5 6 2 2 6 2 2 5 7 0 7 2 0 7 7 0 8 8 2 8
+ 8 0 0 5 0 8 8 0 8 2 1 2 8 0 5 0 2 6 5 2 7 7 0 5 2 2 7 2 1 6 7 5 2 6 5 2 2
+ 5 2 8 6 8 5 6 8 0 0 5 0 7 5 2 2 6 6 8 2 6 0 8 8 2 8 5 6 7 8 5 6 0 8 2 6 2
+ 5 1 6 2 5 6 7 7 2 7 7 6 2 8 2 0 2 6 0 2 0 2 2 5 8 5 6 8 5 1 2 0 2 0 2 2 2
+ 5 2 0 5 5 5 5 6 2 2 5 8 7 5 5 7 3 1 2 8 5 8 0 4 0 5 5 6 5 6 2 2 2 7 2 7 8
+ 5 0 0 0 6 5 7 6 0 2 5 2 2 2 2 8 2 8 7 6 5 0 5 2 2 0 2 5 2 8 7 5 8 5 2 2 2
+ 2 5 7 2 2 8 2 2 2 1 2 2 7 7 2 5 2 5 5 8 7 0 6 5 0 7 1 7 5 7 5 2 0 0 1 5 8
+ 5 0 7 8 6 0 8 6 2 0 5 2 2 2 5 4 5 2 2 7 8 6 0 2 2 2 2 2 7 5 5 7 5 2 2 5 7
+ 8 7 7 8 0 6 2 8 5 5 6 1 0 2 2 8 1 8 0 7 5 7 6 5 5 7 0 2 2 6 6 7 0 5 6 2 1
+ 8 8 0 6 0 0 8 2 2 5 2 6 2 6 5 2 6 2 2 2 2 0 8 7 1 8 6 0 7 2 7 8 2 6 8 2 5
+ 8 2 5 7 2 7 6 7 3 5 2 6 0 0 1 0 7 6 2 5 0 2 6 0 8 8 2 2 6 5 8 3 7 2 5 0 8
+ 2 7 8 8 5 2 2 2 5 7 5 8 1 2 6 2 0 8 8 6 4 5 0 6 5 7 2 0 5 2 2 0 5 7 2 0 5
+ 6 1 2 8 4 5 2 2 7 0 8 2 2 6 2 1 7 6 8 8 5 8 2 2 0 2 4 0 5 2 5 5 2 6 5 2 2
+ 7 0 0 2 5 5 5 7 7 6 0 0 7 0 3 7 6 2 0]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[6 6 6 ... 2 1 2]</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>0.1940829282682997</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>1.478437994075293</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>72.89474544408877</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>0.1817441673270314</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1.595632315280988</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>446.9338240300835</v>
       </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1921,7 +2593,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[0 8 5 ... 5 7 2]</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1935,26 +2607,47 @@
           <t>n_init=20, max_iter=600</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[0 2 3 8 5 0 2 5 6 6 2 8 2 6 2 2 2 5 6 2 2 6 2 2 5 7 0 7 2 0 7 7 0 8 8 2 8
+ 8 0 0 5 0 8 8 0 8 2 1 2 8 0 5 0 2 6 5 2 7 7 0 5 2 2 7 2 1 6 7 5 2 6 5 2 2
+ 5 2 8 6 8 5 6 8 0 0 5 0 7 5 2 2 6 6 8 2 6 0 8 8 2 8 5 6 7 8 5 6 0 8 2 6 2
+ 5 1 6 2 5 6 7 7 2 7 7 6 2 8 2 0 2 6 0 2 0 2 2 5 8 5 6 8 5 1 2 0 2 0 2 2 2
+ 5 2 0 5 5 5 5 6 2 2 5 8 7 5 5 7 3 1 2 8 5 8 0 4 0 5 5 6 5 6 2 2 2 7 2 7 8
+ 5 0 0 0 6 5 7 6 0 2 5 2 2 2 2 8 2 8 7 6 5 0 5 2 2 0 2 5 2 8 7 5 8 5 2 2 2
+ 2 5 7 2 2 8 2 2 2 1 2 2 7 7 2 5 2 5 5 8 7 0 6 5 0 7 1 7 5 7 5 2 0 0 1 5 8
+ 5 0 7 8 6 0 8 6 2 0 5 2 2 2 5 4 5 2 2 7 8 6 0 2 2 2 2 2 7 5 5 7 5 2 2 5 7
+ 8 7 7 8 0 6 2 8 5 5 6 1 0 2 2 8 1 8 0 7 5 7 6 5 5 7 0 2 2 6 6 7 0 5 6 2 1
+ 8 8 0 6 0 0 8 2 2 5 2 6 2 6 5 2 6 2 2 2 2 0 8 7 1 8 6 0 7 2 7 8 2 6 8 2 5
+ 8 2 5 7 2 7 6 7 3 5 2 6 0 0 1 0 7 6 2 5 0 2 6 0 8 8 2 2 6 5 8 3 7 2 5 0 8
+ 2 7 8 8 5 2 2 2 5 7 5 8 1 2 6 2 0 8 8 6 4 5 0 6 5 7 2 0 5 2 2 0 5 7 2 0 5
+ 6 1 2 8 4 5 2 2 7 0 8 2 2 6 2 1 7 6 8 8 5 8 2 2 0 2 4 0 5 2 5 5 2 6 5 2 2
+ 7 0 0 2 5 5 5 7 7 6 0 0 7 0 3 7 6 2 0]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[6 6 6 ... 2 1 2]</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>0.1940829282682997</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>1.478437994075293</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>72.89474544408877</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>0.1817441673270314</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1.595632315280988</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>446.9338240300835</v>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1965,7 +2658,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 4 4]</t>
+          <t>[1 8 0 ... 0 0 3]</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1979,26 +2672,47 @@
           <t>n_init=50, max_iter=100</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[1 3 6 8 0 1 3 0 5 5 3 8 3 5 3 3 3 0 5 3 3 5 3 3 0 0 1 0 3 1 0 0 1 3 8 3 8
+ 8 1 1 0 1 8 8 1 8 3 7 3 8 7 0 1 3 5 0 3 8 0 1 0 3 3 2 3 2 5 0 0 3 2 0 3 3
+ 0 3 8 5 8 0 5 8 1 1 0 1 0 0 3 3 5 5 8 1 5 1 8 8 3 8 0 5 8 8 0 5 1 8 3 5 3
+ 1 2 5 3 0 5 8 0 3 0 0 5 3 8 3 1 3 5 1 3 1 3 3 0 8 0 5 8 0 2 3 1 3 1 3 3 3
+ 0 3 1 0 0 0 0 5 3 3 0 8 0 0 0 0 6 7 3 3 0 8 1 3 1 0 1 5 0 5 3 3 3 0 3 0 8
+ 0 1 1 1 5 0 0 5 1 3 1 3 3 3 3 8 3 8 0 5 0 1 0 3 3 1 0 0 3 8 0 0 8 0 3 3 3
+ 3 0 2 3 3 8 3 3 3 7 3 3 0 0 3 0 3 0 0 8 0 1 5 0 1 0 2 0 0 0 0 3 1 1 2 0 8
+ 0 1 0 8 5 1 8 5 3 1 0 3 3 3 0 3 0 3 3 0 8 5 1 3 0 3 3 3 0 0 0 2 0 3 3 0 0
+ 8 0 0 8 1 5 3 8 0 0 5 2 1 3 3 8 4 8 1 0 0 0 5 2 0 0 1 3 3 5 5 2 1 0 5 3 4
+ 8 8 1 2 3 1 8 3 3 0 3 5 3 5 0 3 5 3 3 3 3 1 8 8 2 8 5 1 0 3 0 8 3 5 8 3 0
+ 8 3 0 8 3 0 5 0 6 0 3 5 1 1 2 1 0 5 3 0 1 3 5 1 8 8 3 3 5 0 8 6 8 3 1 1 8
+ 3 0 8 8 0 3 3 3 0 0 0 8 2 3 5 3 1 8 8 2 3 0 1 5 3 2 3 3 0 3 3 1 0 0 3 1 0
+ 5 4 3 8 0 0 3 3 0 1 8 3 3 5 3 2 8 5 8 8 0 8 3 3 1 3 8 3 0 3 0 0 3 5 0 3 3
+ 0 1 1 3 0 0 0 2 0 5 1 1 0 1 6 0 5 3 1]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[5 5 5 ... 3 2 3]</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>0.2025660818262614</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>1.324024063301452</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>74.00833972280653</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
         <v>0.200816473503201</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1.406942193817315</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>484.1640277219842</v>
       </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -2009,7 +2723,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 4 4]</t>
+          <t>[1 8 0 ... 0 0 3]</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2023,26 +2737,47 @@
           <t>n_init=50, max_iter=300</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[1 3 6 8 0 1 3 0 5 5 3 8 3 5 3 3 3 0 5 3 3 5 3 3 0 0 1 0 3 1 0 0 1 3 8 3 8
+ 8 1 1 0 1 8 8 1 8 3 7 3 8 7 0 1 3 5 0 3 8 0 1 0 3 3 2 3 2 5 0 0 3 2 0 3 3
+ 0 3 8 5 8 0 5 8 1 1 0 1 0 0 3 3 5 5 8 1 5 1 8 8 3 8 0 5 8 8 0 5 1 8 3 5 3
+ 1 2 5 3 0 5 8 0 3 0 0 5 3 8 3 1 3 5 1 3 1 3 3 0 8 0 5 8 0 2 3 1 3 1 3 3 3
+ 0 3 1 0 0 0 0 5 3 3 0 8 0 0 0 0 6 7 3 3 0 8 1 3 1 0 1 5 0 5 3 3 3 0 3 0 8
+ 0 1 1 1 5 0 0 5 1 3 1 3 3 3 3 8 3 8 0 5 0 1 0 3 3 1 0 0 3 8 0 0 8 0 3 3 3
+ 3 0 2 3 3 8 3 3 3 7 3 3 0 0 3 0 3 0 0 8 0 1 5 0 1 0 2 0 0 0 0 3 1 1 2 0 8
+ 0 1 0 8 5 1 8 5 3 1 0 3 3 3 0 3 0 3 3 0 8 5 1 3 0 3 3 3 0 0 0 2 0 3 3 0 0
+ 8 0 0 8 1 5 3 8 0 0 5 2 1 3 3 8 4 8 1 0 0 0 5 2 0 0 1 3 3 5 5 2 1 0 5 3 4
+ 8 8 1 2 3 1 8 3 3 0 3 5 3 5 0 3 5 3 3 3 3 1 8 8 2 8 5 1 0 3 0 8 3 5 8 3 0
+ 8 3 0 8 3 0 5 0 6 0 3 5 1 1 2 1 0 5 3 0 1 3 5 1 8 8 3 3 5 0 8 6 8 3 1 1 8
+ 3 0 8 8 0 3 3 3 0 0 0 8 2 3 5 3 1 8 8 2 3 0 1 5 3 2 3 3 0 3 3 1 0 0 3 1 0
+ 5 4 3 8 0 0 3 3 0 1 8 3 3 5 3 2 8 5 8 8 0 8 3 3 1 3 8 3 0 3 0 0 3 5 0 3 3
+ 0 1 1 3 0 0 0 2 0 5 1 1 0 1 6 0 5 3 1]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[5 5 5 ... 3 2 3]</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>0.2025660818262614</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>1.324024063301452</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>74.00833972280653</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36" t="n">
         <v>0.200816473503201</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1.406942193817315</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>484.1640277219842</v>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2053,7 +2788,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 4 4]</t>
+          <t>[1 8 0 ... 0 0 3]</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2067,26 +2802,47 @@
           <t>n_init=50, max_iter=600</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[1 3 6 8 0 1 3 0 5 5 3 8 3 5 3 3 3 0 5 3 3 5 3 3 0 0 1 0 3 1 0 0 1 3 8 3 8
+ 8 1 1 0 1 8 8 1 8 3 7 3 8 7 0 1 3 5 0 3 8 0 1 0 3 3 2 3 2 5 0 0 3 2 0 3 3
+ 0 3 8 5 8 0 5 8 1 1 0 1 0 0 3 3 5 5 8 1 5 1 8 8 3 8 0 5 8 8 0 5 1 8 3 5 3
+ 1 2 5 3 0 5 8 0 3 0 0 5 3 8 3 1 3 5 1 3 1 3 3 0 8 0 5 8 0 2 3 1 3 1 3 3 3
+ 0 3 1 0 0 0 0 5 3 3 0 8 0 0 0 0 6 7 3 3 0 8 1 3 1 0 1 5 0 5 3 3 3 0 3 0 8
+ 0 1 1 1 5 0 0 5 1 3 1 3 3 3 3 8 3 8 0 5 0 1 0 3 3 1 0 0 3 8 0 0 8 0 3 3 3
+ 3 0 2 3 3 8 3 3 3 7 3 3 0 0 3 0 3 0 0 8 0 1 5 0 1 0 2 0 0 0 0 3 1 1 2 0 8
+ 0 1 0 8 5 1 8 5 3 1 0 3 3 3 0 3 0 3 3 0 8 5 1 3 0 3 3 3 0 0 0 2 0 3 3 0 0
+ 8 0 0 8 1 5 3 8 0 0 5 2 1 3 3 8 4 8 1 0 0 0 5 2 0 0 1 3 3 5 5 2 1 0 5 3 4
+ 8 8 1 2 3 1 8 3 3 0 3 5 3 5 0 3 5 3 3 3 3 1 8 8 2 8 5 1 0 3 0 8 3 5 8 3 0
+ 8 3 0 8 3 0 5 0 6 0 3 5 1 1 2 1 0 5 3 0 1 3 5 1 8 8 3 3 5 0 8 6 8 3 1 1 8
+ 3 0 8 8 0 3 3 3 0 0 0 8 2 3 5 3 1 8 8 2 3 0 1 5 3 2 3 3 0 3 3 1 0 0 3 1 0
+ 5 4 3 8 0 0 3 3 0 1 8 3 3 5 3 2 8 5 8 8 0 8 3 3 1 3 8 3 0 3 0 0 3 5 0 3 3
+ 0 1 1 3 0 0 0 2 0 5 1 1 0 1 6 0 5 3 1]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[5 5 5 ... 3 2 3]</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>0.2025660818262614</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>1.324024063301452</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>74.00833972280653</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37" t="n">
         <v>0.200816473503201</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1.406942193817315</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>484.1640277219842</v>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -2097,7 +2853,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 0]</t>
+          <t>[1 1 2 ... 2 1 1]</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2111,26 +2867,34 @@
           <t>n_init=10, max_iter=100</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[0 2 2 ... 2 1 2]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 2 1]</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>0.2089765767010463</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>1.565314272859229</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J38" t="n">
         <v>234.1372551207385</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38" t="n">
         <v>0.2018055204117454</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1.643627417321349</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>537.4736822364426</v>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -2141,7 +2905,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 0]</t>
+          <t>[1 1 2 ... 2 1 1]</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2155,26 +2919,34 @@
           <t>n_init=10, max_iter=300</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[0 2 2 ... 2 1 2]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 2 1]</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>0.2089765767010463</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>1.565314272859229</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J39" t="n">
         <v>234.1372551207385</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39" t="n">
         <v>0.2018055204117454</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1.643627417321349</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>537.4736822364426</v>
       </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -2185,7 +2957,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 0]</t>
+          <t>[1 1 2 ... 2 1 1]</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2199,26 +2971,34 @@
           <t>n_init=10, max_iter=600</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[0 2 2 ... 2 1 2]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 2 1]</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>0.2089765767010463</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>1.565314272859229</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J40" t="n">
         <v>234.1372551207385</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
         <v>0.2018055204117454</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1.643627417321349</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>537.4736822364426</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -2229,7 +3009,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[1 1 2 ... 2 1 2]</t>
+          <t>[1 1 2 ... 2 1 1]</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2243,26 +3023,34 @@
           <t>n_init=20, max_iter=100</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[0 2 2 ... 2 1 2]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 2 1]</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>0.2089765767010463</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>1.565314272859229</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>234.1372551207385</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41" t="n">
         <v>0.2018055204117454</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1.643627417321349</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>537.4736822364426</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -2273,7 +3061,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[1 1 2 ... 2 1 2]</t>
+          <t>[1 1 2 ... 2 1 1]</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2287,26 +3075,34 @@
           <t>n_init=20, max_iter=300</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[0 2 2 ... 2 1 2]</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 2 1]</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
         <v>0.2089765767010463</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>1.565314272859229</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42" t="n">
         <v>234.1372551207385</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42" t="n">
         <v>0.2018055204117454</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1.643627417321349</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>537.4736822364426</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -2317,7 +3113,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[1 1 2 ... 2 1 2]</t>
+          <t>[1 1 2 ... 2 1 1]</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2331,26 +3127,34 @@
           <t>n_init=20, max_iter=600</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[0 2 2 ... 2 1 2]</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 2 1]</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
         <v>0.2089765767010463</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>1.565314272859229</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43" t="n">
         <v>234.1372551207385</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43" t="n">
         <v>0.2018055204117454</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1.643627417321349</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>537.4736822364426</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -2361,7 +3165,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 2]</t>
+          <t>[0 0 2 ... 2 0 0]</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2375,26 +3179,34 @@
           <t>n_init=50, max_iter=100</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[1 2 2 ... 2 0 2]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 0 2 0]</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>0.2102327682116749</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>1.547904684169301</v>
       </c>
-      <c r="H44" t="n">
+      <c r="J44" t="n">
         <v>234.4701353286191</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44" t="n">
         <v>0.2025338144114499</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1.634955431779003</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>534.3353154911255</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -2405,7 +3217,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 2]</t>
+          <t>[0 0 2 ... 2 0 0]</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2419,26 +3231,34 @@
           <t>n_init=50, max_iter=300</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[1 2 2 ... 2 0 2]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 0 2 0]</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
         <v>0.2102327682116749</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>1.547904684169301</v>
       </c>
-      <c r="H45" t="n">
+      <c r="J45" t="n">
         <v>234.4701353286191</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45" t="n">
         <v>0.2025338144114499</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1.634955431779003</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>534.3353154911255</v>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -2449,7 +3269,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 2]</t>
+          <t>[0 0 2 ... 2 0 0]</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2463,26 +3283,34 @@
           <t>n_init=50, max_iter=600</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[1 2 2 ... 2 0 2]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 0 2 0]</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
         <v>0.2102327682116749</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>1.547904684169301</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J46" t="n">
         <v>234.4701353286191</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46" t="n">
         <v>0.2025338144114499</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1.634955431779003</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>534.3353154911255</v>
       </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -2493,7 +3321,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[1 0 3 ... 1 3 1]</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2507,26 +3335,34 @@
           <t>n_init=10, max_iter=100</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[2 3 3 ... 4 1 1]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>[4 4 4 ... 1 3 1]</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>0.2178787699894135</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>1.452553751385072</v>
       </c>
-      <c r="H47" t="n">
+      <c r="J47" t="n">
         <v>219.830085114356</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47" t="n">
         <v>0.2106791463519333</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1.489294229639514</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>514.3016838997413</v>
       </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2537,7 +3373,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[1 0 3 ... 1 3 1]</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2551,26 +3387,34 @@
           <t>n_init=10, max_iter=300</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[2 3 3 ... 4 1 1]</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>[4 4 4 ... 1 3 1]</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
         <v>0.2178787699894135</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>1.452553751385072</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>219.830085114356</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48" t="n">
         <v>0.2106791463519333</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1.489294229639514</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>514.3016838997413</v>
       </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2581,7 +3425,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[1 0 3 ... 1 3 1]</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2595,26 +3439,34 @@
           <t>n_init=10, max_iter=600</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[2 3 3 ... 4 1 1]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>[4 4 4 ... 1 3 1]</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>0.2178787699894135</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>1.452553751385072</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>219.830085114356</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49" t="n">
         <v>0.2106791463519333</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1.489294229639514</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>514.3016838997413</v>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -2625,7 +3477,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[4 0 2 ... 4 2 4]</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2639,26 +3491,34 @@
           <t>n_init=20, max_iter=100</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[3 2 2 ... 1 4 4]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 4 2 4]</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
         <v>0.2179484512774104</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
         <v>1.452255701298486</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J50" t="n">
         <v>219.8309367063881</v>
       </c>
-      <c r="I50" t="n">
+      <c r="K50" t="n">
         <v>0.2108032488892068</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1.489431226614094</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>514.2889046928083</v>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2669,7 +3529,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[4 0 2 ... 4 2 4]</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2683,26 +3543,34 @@
           <t>n_init=20, max_iter=300</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[3 2 2 ... 1 4 4]</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 4 2 4]</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
         <v>0.2179484512774104</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
         <v>1.452255701298486</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J51" t="n">
         <v>219.8309367063881</v>
       </c>
-      <c r="I51" t="n">
+      <c r="K51" t="n">
         <v>0.2108032488892068</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1.489431226614094</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>514.2889046928083</v>
       </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2713,7 +3581,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[4 0 2 ... 4 2 4]</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2727,26 +3595,34 @@
           <t>n_init=20, max_iter=600</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>[3 2 2 ... 1 4 4]</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 4 2 4]</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>0.2179484512774104</v>
       </c>
-      <c r="G52" t="n">
+      <c r="I52" t="n">
         <v>1.452255701298486</v>
       </c>
-      <c r="H52" t="n">
+      <c r="J52" t="n">
         <v>219.8309367063881</v>
       </c>
-      <c r="I52" t="n">
+      <c r="K52" t="n">
         <v>0.2108032488892068</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1.489431226614094</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>514.2889046928083</v>
       </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -2757,7 +3633,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[1 2 3 ... 1 3 1]</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2771,26 +3647,34 @@
           <t>n_init=50, max_iter=100</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[4 3 3 ... 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 3 1]</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
         <v>0.2170077879037753</v>
       </c>
-      <c r="G53" t="n">
+      <c r="I53" t="n">
         <v>1.433622651408433</v>
       </c>
-      <c r="H53" t="n">
+      <c r="J53" t="n">
         <v>220.2831296351541</v>
       </c>
-      <c r="I53" t="n">
+      <c r="K53" t="n">
         <v>0.2100808234473158</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1.474318562767186</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>506.8017534127013</v>
       </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -2801,7 +3685,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[1 2 3 ... 1 3 1]</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2815,26 +3699,34 @@
           <t>n_init=50, max_iter=300</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>[4 3 3 ... 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 3 1]</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
         <v>0.2170077879037753</v>
       </c>
-      <c r="G54" t="n">
+      <c r="I54" t="n">
         <v>1.433622651408433</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J54" t="n">
         <v>220.2831296351541</v>
       </c>
-      <c r="I54" t="n">
+      <c r="K54" t="n">
         <v>0.2100808234473158</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1.474318562767186</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>506.8017534127013</v>
       </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -2845,7 +3737,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[1 2 3 ... 1 3 1]</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2859,26 +3751,34 @@
           <t>n_init=50, max_iter=600</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>[4 3 3 ... 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 3 1]</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
         <v>0.2170077879037753</v>
       </c>
-      <c r="G55" t="n">
+      <c r="I55" t="n">
         <v>1.433622651408433</v>
       </c>
-      <c r="H55" t="n">
+      <c r="J55" t="n">
         <v>220.2831296351541</v>
       </c>
-      <c r="I55" t="n">
+      <c r="K55" t="n">
         <v>0.2100808234473158</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1.474318562767186</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>506.8017534127013</v>
       </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2889,7 +3789,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 5 4]</t>
+          <t>[2 6 3 ... 3 3 2]</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2903,26 +3803,34 @@
           <t>n_init=10, max_iter=100</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>[5 3 3 ... 0 2 1]</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 2 3 1]</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
         <v>0.2118137319540449</v>
       </c>
-      <c r="G56" t="n">
+      <c r="I56" t="n">
         <v>1.379580536961096</v>
       </c>
-      <c r="H56" t="n">
+      <c r="J56" t="n">
         <v>201.5658190926852</v>
       </c>
-      <c r="I56" t="n">
+      <c r="K56" t="n">
         <v>0.2012327078499325</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1.433414103088937</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>443.5464945027024</v>
       </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -2933,7 +3841,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 5 4]</t>
+          <t>[2 6 3 ... 3 3 2]</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2947,26 +3855,34 @@
           <t>n_init=10, max_iter=300</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[5 3 3 ... 0 2 1]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 2 3 1]</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
         <v>0.2118137319540449</v>
       </c>
-      <c r="G57" t="n">
+      <c r="I57" t="n">
         <v>1.379580536961096</v>
       </c>
-      <c r="H57" t="n">
+      <c r="J57" t="n">
         <v>201.5658190926852</v>
       </c>
-      <c r="I57" t="n">
+      <c r="K57" t="n">
         <v>0.2012327078499325</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1.433414103088937</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>443.5464945027024</v>
       </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -2977,7 +3893,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 5 4]</t>
+          <t>[2 6 3 ... 3 3 2]</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2991,26 +3907,34 @@
           <t>n_init=10, max_iter=600</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>[5 3 3 ... 0 2 1]</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 2 3 1]</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
         <v>0.2118137319540449</v>
       </c>
-      <c r="G58" t="n">
+      <c r="I58" t="n">
         <v>1.379580536961096</v>
       </c>
-      <c r="H58" t="n">
+      <c r="J58" t="n">
         <v>201.5658190926852</v>
       </c>
-      <c r="I58" t="n">
+      <c r="K58" t="n">
         <v>0.2012327078499325</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1.433414103088937</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>443.5464945027024</v>
       </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -3021,7 +3945,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[2 6 3 ... 3 3 2]</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -3035,26 +3959,34 @@
           <t>n_init=20, max_iter=100</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>[5 3 3 ... 0 2 1]</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 2 3 1]</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
         <v>0.2118137319540449</v>
       </c>
-      <c r="G59" t="n">
+      <c r="I59" t="n">
         <v>1.379580536961096</v>
       </c>
-      <c r="H59" t="n">
+      <c r="J59" t="n">
         <v>201.5658190926852</v>
       </c>
-      <c r="I59" t="n">
+      <c r="K59" t="n">
         <v>0.2012327078499325</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1.433414103088937</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>443.5464945027024</v>
       </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -3065,7 +3997,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[2 6 3 ... 3 3 2]</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3079,26 +4011,34 @@
           <t>n_init=20, max_iter=300</t>
         </is>
       </c>
-      <c r="F60" t="n">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>[5 3 3 ... 0 2 1]</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 2 3 1]</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
         <v>0.2118137319540449</v>
       </c>
-      <c r="G60" t="n">
+      <c r="I60" t="n">
         <v>1.379580536961096</v>
       </c>
-      <c r="H60" t="n">
+      <c r="J60" t="n">
         <v>201.5658190926852</v>
       </c>
-      <c r="I60" t="n">
+      <c r="K60" t="n">
         <v>0.2012327078499325</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1.433414103088937</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>443.5464945027024</v>
       </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -3109,7 +4049,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[2 6 3 ... 3 3 2]</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -3123,26 +4063,34 @@
           <t>n_init=20, max_iter=600</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>[5 3 3 ... 0 2 1]</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 2 3 1]</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
         <v>0.2118137319540449</v>
       </c>
-      <c r="G61" t="n">
+      <c r="I61" t="n">
         <v>1.379580536961096</v>
       </c>
-      <c r="H61" t="n">
+      <c r="J61" t="n">
         <v>201.5658190926852</v>
       </c>
-      <c r="I61" t="n">
+      <c r="K61" t="n">
         <v>0.2012327078499325</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1.433414103088937</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>443.5464945027024</v>
       </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -3153,7 +4101,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[1 4 6 ... 6 6 1]</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -3167,26 +4115,34 @@
           <t>n_init=50, max_iter=100</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>[5 6 6 ... 2 1 0]</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 6 0]</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
         <v>0.2121333872836167</v>
       </c>
-      <c r="G62" t="n">
+      <c r="I62" t="n">
         <v>1.375573002631771</v>
       </c>
-      <c r="H62" t="n">
+      <c r="J62" t="n">
         <v>201.6040108859414</v>
       </c>
-      <c r="I62" t="n">
+      <c r="K62" t="n">
         <v>0.2012278065200579</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1.433552842516632</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>443.660235914894</v>
       </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -3197,7 +4153,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[1 4 6 ... 6 6 1]</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -3211,26 +4167,34 @@
           <t>n_init=50, max_iter=300</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>[5 6 6 ... 2 1 0]</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 6 0]</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
         <v>0.2121333872836167</v>
       </c>
-      <c r="G63" t="n">
+      <c r="I63" t="n">
         <v>1.375573002631771</v>
       </c>
-      <c r="H63" t="n">
+      <c r="J63" t="n">
         <v>201.6040108859414</v>
       </c>
-      <c r="I63" t="n">
+      <c r="K63" t="n">
         <v>0.2012278065200579</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1.433552842516632</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>443.660235914894</v>
       </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -3241,7 +4205,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[1 4 6 ... 6 6 1]</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3255,26 +4219,34 @@
           <t>n_init=50, max_iter=600</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>[5 6 6 ... 2 1 0]</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 1 6 0]</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
         <v>0.2121333872836167</v>
       </c>
-      <c r="G64" t="n">
+      <c r="I64" t="n">
         <v>1.375573002631771</v>
       </c>
-      <c r="H64" t="n">
+      <c r="J64" t="n">
         <v>201.6040108859414</v>
       </c>
-      <c r="I64" t="n">
+      <c r="K64" t="n">
         <v>0.2012278065200579</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1.433552842516632</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>443.660235914894</v>
       </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -3285,7 +4257,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[4 8 3 ... 3 6 3]</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -3299,26 +4271,34 @@
           <t>n_init=10, max_iter=100</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>[2 3 3 ... 7 6 4]</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>[7 7 7 ... 6 3 4]</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
         <v>0.2095737776634018</v>
       </c>
-      <c r="G65" t="n">
+      <c r="I65" t="n">
         <v>1.261647863194635</v>
       </c>
-      <c r="H65" t="n">
+      <c r="J65" t="n">
         <v>193.3632147695239</v>
       </c>
-      <c r="I65" t="n">
+      <c r="K65" t="n">
         <v>0.2002037751930154</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1.252493835017837</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>428.4656369327674</v>
       </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -3329,7 +4309,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[4 8 3 ... 3 6 3]</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3343,26 +4323,34 @@
           <t>n_init=10, max_iter=300</t>
         </is>
       </c>
-      <c r="F66" t="n">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>[2 3 3 ... 7 6 4]</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>[7 7 7 ... 6 3 4]</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
         <v>0.2095737776634018</v>
       </c>
-      <c r="G66" t="n">
+      <c r="I66" t="n">
         <v>1.261647863194635</v>
       </c>
-      <c r="H66" t="n">
+      <c r="J66" t="n">
         <v>193.3632147695239</v>
       </c>
-      <c r="I66" t="n">
+      <c r="K66" t="n">
         <v>0.2002037751930154</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1.252493835017837</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>428.4656369327674</v>
       </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -3373,7 +4361,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[4 8 3 ... 3 6 3]</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -3387,26 +4375,34 @@
           <t>n_init=10, max_iter=600</t>
         </is>
       </c>
-      <c r="F67" t="n">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[2 3 3 ... 7 6 4]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>[7 7 7 ... 6 3 4]</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
         <v>0.2095737776634018</v>
       </c>
-      <c r="G67" t="n">
+      <c r="I67" t="n">
         <v>1.261647863194635</v>
       </c>
-      <c r="H67" t="n">
+      <c r="J67" t="n">
         <v>193.3632147695239</v>
       </c>
-      <c r="I67" t="n">
+      <c r="K67" t="n">
         <v>0.2002037751930154</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1.252493835017837</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>428.4656369327674</v>
       </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -3417,7 +4413,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[4 8 3 ... 3 6 3]</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3431,26 +4427,34 @@
           <t>n_init=20, max_iter=100</t>
         </is>
       </c>
-      <c r="F68" t="n">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>[2 3 3 ... 7 6 4]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>[7 7 7 ... 6 3 4]</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
         <v>0.2095737776634018</v>
       </c>
-      <c r="G68" t="n">
+      <c r="I68" t="n">
         <v>1.261647863194635</v>
       </c>
-      <c r="H68" t="n">
+      <c r="J68" t="n">
         <v>193.3632147695239</v>
       </c>
-      <c r="I68" t="n">
+      <c r="K68" t="n">
         <v>0.2002037751930154</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>1.252493835017837</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>428.4656369327674</v>
       </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -3461,7 +4465,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[4 8 3 ... 3 6 3]</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -3475,26 +4479,34 @@
           <t>n_init=20, max_iter=300</t>
         </is>
       </c>
-      <c r="F69" t="n">
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>[2 3 3 ... 7 6 4]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>[7 7 7 ... 6 3 4]</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
         <v>0.2095737776634018</v>
       </c>
-      <c r="G69" t="n">
+      <c r="I69" t="n">
         <v>1.261647863194635</v>
       </c>
-      <c r="H69" t="n">
+      <c r="J69" t="n">
         <v>193.3632147695239</v>
       </c>
-      <c r="I69" t="n">
+      <c r="K69" t="n">
         <v>0.2002037751930154</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>1.252493835017837</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>428.4656369327674</v>
       </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -3505,7 +4517,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[4 8 3 ... 3 6 3]</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3519,26 +4531,34 @@
           <t>n_init=20, max_iter=600</t>
         </is>
       </c>
-      <c r="F70" t="n">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>[2 3 3 ... 7 6 4]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>[7 7 7 ... 6 3 4]</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
         <v>0.2095737776634018</v>
       </c>
-      <c r="G70" t="n">
+      <c r="I70" t="n">
         <v>1.261647863194635</v>
       </c>
-      <c r="H70" t="n">
+      <c r="J70" t="n">
         <v>193.3632147695239</v>
       </c>
-      <c r="I70" t="n">
+      <c r="K70" t="n">
         <v>0.2002037751930154</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>1.252493835017837</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>428.4656369327674</v>
       </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -3549,7 +4569,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 4 4]</t>
+          <t>[4 8 3 ... 3 6 3]</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3563,26 +4583,34 @@
           <t>n_init=50, max_iter=100</t>
         </is>
       </c>
-      <c r="F71" t="n">
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>[2 3 3 ... 7 6 4]</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>[7 7 7 ... 6 3 4]</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
         <v>0.2095737776634018</v>
       </c>
-      <c r="G71" t="n">
+      <c r="I71" t="n">
         <v>1.261647863194635</v>
       </c>
-      <c r="H71" t="n">
+      <c r="J71" t="n">
         <v>193.3632147695239</v>
       </c>
-      <c r="I71" t="n">
+      <c r="K71" t="n">
         <v>0.2002037751930154</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>1.252493835017837</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>428.4656369327674</v>
       </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -3593,7 +4621,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 4 4]</t>
+          <t>[4 8 3 ... 3 6 3]</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3607,26 +4635,34 @@
           <t>n_init=50, max_iter=300</t>
         </is>
       </c>
-      <c r="F72" t="n">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>[2 3 3 ... 7 6 4]</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>[7 7 7 ... 6 3 4]</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
         <v>0.2095737776634018</v>
       </c>
-      <c r="G72" t="n">
+      <c r="I72" t="n">
         <v>1.261647863194635</v>
       </c>
-      <c r="H72" t="n">
+      <c r="J72" t="n">
         <v>193.3632147695239</v>
       </c>
-      <c r="I72" t="n">
+      <c r="K72" t="n">
         <v>0.2002037751930154</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>1.252493835017837</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>428.4656369327674</v>
       </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -3637,7 +4673,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 4 4]</t>
+          <t>[4 8 3 ... 3 6 3]</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3651,26 +4687,34 @@
           <t>n_init=50, max_iter=600</t>
         </is>
       </c>
-      <c r="F73" t="n">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>[2 3 3 ... 7 6 4]</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>[7 7 7 ... 6 3 4]</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
         <v>0.2095737776634018</v>
       </c>
-      <c r="G73" t="n">
+      <c r="I73" t="n">
         <v>1.261647863194635</v>
       </c>
-      <c r="H73" t="n">
+      <c r="J73" t="n">
         <v>193.3632147695239</v>
       </c>
-      <c r="I73" t="n">
+      <c r="K73" t="n">
         <v>0.2002037751930154</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>1.252493835017837</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>428.4656369327674</v>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -3681,7 +4725,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 0]</t>
+          <t>[1 1 0 ... 0 1 1]</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3695,26 +4739,34 @@
           <t>n_init=10, max_iter=100</t>
         </is>
       </c>
-      <c r="F74" t="n">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>[1 0 1 ... 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
         <v>0.2096064646131175</v>
       </c>
-      <c r="G74" t="n">
+      <c r="I74" t="n">
         <v>1.56673122147258</v>
       </c>
-      <c r="H74" t="n">
+      <c r="J74" t="n">
         <v>269.7614866870699</v>
       </c>
-      <c r="I74" t="n">
+      <c r="K74" t="n">
         <v>0.2065856485320762</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>1.548874764322895</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>478.5747244392562</v>
       </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -3725,7 +4777,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 0]</t>
+          <t>[1 1 0 ... 0 1 1]</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3739,26 +4791,34 @@
           <t>n_init=10, max_iter=300</t>
         </is>
       </c>
-      <c r="F75" t="n">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>[1 0 1 ... 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
         <v>0.2096064646131175</v>
       </c>
-      <c r="G75" t="n">
+      <c r="I75" t="n">
         <v>1.56673122147258</v>
       </c>
-      <c r="H75" t="n">
+      <c r="J75" t="n">
         <v>269.7614866870699</v>
       </c>
-      <c r="I75" t="n">
+      <c r="K75" t="n">
         <v>0.2065856485320762</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>1.548874764322895</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>478.5747244392562</v>
       </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -3769,7 +4829,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 0]</t>
+          <t>[1 1 0 ... 0 1 1]</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3783,26 +4843,34 @@
           <t>n_init=10, max_iter=600</t>
         </is>
       </c>
-      <c r="F76" t="n">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>[1 0 1 ... 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
         <v>0.2096064646131175</v>
       </c>
-      <c r="G76" t="n">
+      <c r="I76" t="n">
         <v>1.56673122147258</v>
       </c>
-      <c r="H76" t="n">
+      <c r="J76" t="n">
         <v>269.7614866870699</v>
       </c>
-      <c r="I76" t="n">
+      <c r="K76" t="n">
         <v>0.2065856485320762</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>1.548874764322895</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>478.5747244392562</v>
       </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -3813,7 +4881,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[1 1 2 ... 2 1 2]</t>
+          <t>[1 1 0 ... 0 1 1]</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3827,26 +4895,34 @@
           <t>n_init=20, max_iter=100</t>
         </is>
       </c>
-      <c r="F77" t="n">
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>[1 0 1 ... 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
         <v>0.2096064646131175</v>
       </c>
-      <c r="G77" t="n">
+      <c r="I77" t="n">
         <v>1.56673122147258</v>
       </c>
-      <c r="H77" t="n">
+      <c r="J77" t="n">
         <v>269.7614866870699</v>
       </c>
-      <c r="I77" t="n">
+      <c r="K77" t="n">
         <v>0.2065856485320762</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>1.548874764322895</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>478.5747244392562</v>
       </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -3857,7 +4933,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[1 1 2 ... 2 1 2]</t>
+          <t>[1 1 0 ... 0 1 1]</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3871,26 +4947,34 @@
           <t>n_init=20, max_iter=300</t>
         </is>
       </c>
-      <c r="F78" t="n">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>[1 0 1 ... 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
         <v>0.2096064646131175</v>
       </c>
-      <c r="G78" t="n">
+      <c r="I78" t="n">
         <v>1.56673122147258</v>
       </c>
-      <c r="H78" t="n">
+      <c r="J78" t="n">
         <v>269.7614866870699</v>
       </c>
-      <c r="I78" t="n">
+      <c r="K78" t="n">
         <v>0.2065856485320762</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>1.548874764322895</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>478.5747244392562</v>
       </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -3901,7 +4985,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[1 1 2 ... 2 1 2]</t>
+          <t>[1 1 0 ... 0 1 1]</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3915,26 +4999,34 @@
           <t>n_init=20, max_iter=600</t>
         </is>
       </c>
-      <c r="F79" t="n">
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>[1 0 1 ... 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
         <v>0.2096064646131175</v>
       </c>
-      <c r="G79" t="n">
+      <c r="I79" t="n">
         <v>1.56673122147258</v>
       </c>
-      <c r="H79" t="n">
+      <c r="J79" t="n">
         <v>269.7614866870699</v>
       </c>
-      <c r="I79" t="n">
+      <c r="K79" t="n">
         <v>0.2065856485320762</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>1.548874764322895</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>478.5747244392562</v>
       </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -3945,7 +5037,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 2]</t>
+          <t>[1 1 0 ... 0 1 1]</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3959,26 +5051,34 @@
           <t>n_init=50, max_iter=100</t>
         </is>
       </c>
-      <c r="F80" t="n">
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>[1 0 1 ... 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
         <v>0.2096064646131175</v>
       </c>
-      <c r="G80" t="n">
+      <c r="I80" t="n">
         <v>1.56673122147258</v>
       </c>
-      <c r="H80" t="n">
+      <c r="J80" t="n">
         <v>269.7614866870699</v>
       </c>
-      <c r="I80" t="n">
+      <c r="K80" t="n">
         <v>0.2065856485320762</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>1.548874764322895</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>478.5747244392562</v>
       </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3989,7 +5089,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 2]</t>
+          <t>[1 1 0 ... 0 1 1]</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -4003,26 +5103,34 @@
           <t>n_init=50, max_iter=300</t>
         </is>
       </c>
-      <c r="F81" t="n">
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>[1 0 1 ... 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
         <v>0.2096064646131175</v>
       </c>
-      <c r="G81" t="n">
+      <c r="I81" t="n">
         <v>1.56673122147258</v>
       </c>
-      <c r="H81" t="n">
+      <c r="J81" t="n">
         <v>269.7614866870699</v>
       </c>
-      <c r="I81" t="n">
+      <c r="K81" t="n">
         <v>0.2065856485320762</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>1.548874764322895</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>478.5747244392562</v>
       </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -4033,7 +5141,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[0 0 2 ... 2 0 2]</t>
+          <t>[1 1 0 ... 0 1 1]</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -4047,26 +5155,34 @@
           <t>n_init=50, max_iter=600</t>
         </is>
       </c>
-      <c r="F82" t="n">
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>[1 0 1 ... 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
         <v>0.2096064646131175</v>
       </c>
-      <c r="G82" t="n">
+      <c r="I82" t="n">
         <v>1.56673122147258</v>
       </c>
-      <c r="H82" t="n">
+      <c r="J82" t="n">
         <v>269.7614866870699</v>
       </c>
-      <c r="I82" t="n">
+      <c r="K82" t="n">
         <v>0.2065856485320762</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>1.548874764322895</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>478.5747244392562</v>
       </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -4077,7 +5193,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[1 3 2 ... 1 2 1]</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -4091,26 +5207,34 @@
           <t>n_init=10, max_iter=100</t>
         </is>
       </c>
-      <c r="F83" t="n">
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>[1 0 1 ... 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 2 2]</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
         <v>0.2152955972955684</v>
       </c>
-      <c r="G83" t="n">
+      <c r="I83" t="n">
         <v>1.465652584517131</v>
       </c>
-      <c r="H83" t="n">
+      <c r="J83" t="n">
         <v>249.1666124803446</v>
       </c>
-      <c r="I83" t="n">
+      <c r="K83" t="n">
         <v>0.2116946254586032</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>1.445289919122589</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>469.7741034287207</v>
       </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -4121,7 +5245,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[1 3 2 ... 1 2 1]</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -4135,26 +5259,34 @@
           <t>n_init=10, max_iter=300</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[1 0 1 ... 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 2 2]</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
         <v>0.2152955972955684</v>
       </c>
-      <c r="G84" t="n">
+      <c r="I84" t="n">
         <v>1.465652584517131</v>
       </c>
-      <c r="H84" t="n">
+      <c r="J84" t="n">
         <v>249.1666124803446</v>
       </c>
-      <c r="I84" t="n">
+      <c r="K84" t="n">
         <v>0.2116946254586032</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>1.445289919122589</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>469.7741034287207</v>
       </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -4165,7 +5297,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[1 3 2 ... 1 2 1]</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -4179,26 +5311,34 @@
           <t>n_init=10, max_iter=600</t>
         </is>
       </c>
-      <c r="F85" t="n">
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[1 0 1 ... 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>[0 0 0 ... 1 2 2]</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
         <v>0.2152955972955684</v>
       </c>
-      <c r="G85" t="n">
+      <c r="I85" t="n">
         <v>1.465652584517131</v>
       </c>
-      <c r="H85" t="n">
+      <c r="J85" t="n">
         <v>249.1666124803446</v>
       </c>
-      <c r="I85" t="n">
+      <c r="K85" t="n">
         <v>0.2116946254586032</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>1.445289919122589</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>469.7741034287207</v>
       </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -4209,7 +5349,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[2 0 4 ... 2 4 2]</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -4223,26 +5363,34 @@
           <t>n_init=20, max_iter=100</t>
         </is>
       </c>
-      <c r="F86" t="n">
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[2 3 2 ... 3 2 2]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 2 4 4]</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
         <v>0.2148670338607183</v>
       </c>
-      <c r="G86" t="n">
+      <c r="I86" t="n">
         <v>1.469312440160433</v>
       </c>
-      <c r="H86" t="n">
+      <c r="J86" t="n">
         <v>249.286333405436</v>
       </c>
-      <c r="I86" t="n">
+      <c r="K86" t="n">
         <v>0.2116646311460112</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>1.446005879262774</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>471.0781176827479</v>
       </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -4253,7 +5401,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[2 0 4 ... 2 4 2]</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -4267,26 +5415,34 @@
           <t>n_init=20, max_iter=300</t>
         </is>
       </c>
-      <c r="F87" t="n">
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>[2 3 2 ... 3 2 2]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 2 4 4]</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
         <v>0.2148670338607183</v>
       </c>
-      <c r="G87" t="n">
+      <c r="I87" t="n">
         <v>1.469312440160433</v>
       </c>
-      <c r="H87" t="n">
+      <c r="J87" t="n">
         <v>249.286333405436</v>
       </c>
-      <c r="I87" t="n">
+      <c r="K87" t="n">
         <v>0.2116646311460112</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>1.446005879262774</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>471.0781176827479</v>
       </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -4297,7 +5453,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[2 0 4 ... 2 4 2]</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -4311,26 +5467,34 @@
           <t>n_init=20, max_iter=600</t>
         </is>
       </c>
-      <c r="F88" t="n">
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[2 3 2 ... 3 2 2]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 2 4 4]</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
         <v>0.2148670338607183</v>
       </c>
-      <c r="G88" t="n">
+      <c r="I88" t="n">
         <v>1.469312440160433</v>
       </c>
-      <c r="H88" t="n">
+      <c r="J88" t="n">
         <v>249.286333405436</v>
       </c>
-      <c r="I88" t="n">
+      <c r="K88" t="n">
         <v>0.2116646311460112</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>1.446005879262774</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>471.0781176827479</v>
       </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -4341,7 +5505,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[2 0 4 ... 2 4 2]</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -4355,26 +5519,34 @@
           <t>n_init=50, max_iter=100</t>
         </is>
       </c>
-      <c r="F89" t="n">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[2 3 2 ... 3 2 2]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 2 4 4]</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
         <v>0.2148670338607183</v>
       </c>
-      <c r="G89" t="n">
+      <c r="I89" t="n">
         <v>1.469312440160433</v>
       </c>
-      <c r="H89" t="n">
+      <c r="J89" t="n">
         <v>249.286333405436</v>
       </c>
-      <c r="I89" t="n">
+      <c r="K89" t="n">
         <v>0.2116646311460112</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>1.446005879262774</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>471.0781176827479</v>
       </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -4385,7 +5557,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[2 0 4 ... 2 4 2]</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -4399,26 +5571,34 @@
           <t>n_init=50, max_iter=300</t>
         </is>
       </c>
-      <c r="F90" t="n">
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>[2 3 2 ... 3 2 2]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 2 4 4]</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
         <v>0.2148670338607183</v>
       </c>
-      <c r="G90" t="n">
+      <c r="I90" t="n">
         <v>1.469312440160433</v>
       </c>
-      <c r="H90" t="n">
+      <c r="J90" t="n">
         <v>249.286333405436</v>
       </c>
-      <c r="I90" t="n">
+      <c r="K90" t="n">
         <v>0.2116646311460112</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>1.446005879262774</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>471.0781176827479</v>
       </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -4429,7 +5609,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[2 0 3 ... 2 3 2]</t>
+          <t>[2 0 4 ... 2 4 2]</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -4443,26 +5623,34 @@
           <t>n_init=50, max_iter=600</t>
         </is>
       </c>
-      <c r="F91" t="n">
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>[2 3 2 ... 3 2 2]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 2 4 4]</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
         <v>0.2148670338607183</v>
       </c>
-      <c r="G91" t="n">
+      <c r="I91" t="n">
         <v>1.469312440160433</v>
       </c>
-      <c r="H91" t="n">
+      <c r="J91" t="n">
         <v>249.286333405436</v>
       </c>
-      <c r="I91" t="n">
+      <c r="K91" t="n">
         <v>0.2116646311460112</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>1.446005879262774</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>471.0781176827479</v>
       </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -4473,7 +5661,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 5 4]</t>
+          <t>[0 6 2 ... 2 0 2]</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -4487,26 +5675,34 @@
           <t>n_init=10, max_iter=100</t>
         </is>
       </c>
-      <c r="F92" t="n">
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>[0 1 0 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 0 2 2]</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
         <v>0.1987736764835238</v>
       </c>
-      <c r="G92" t="n">
+      <c r="I92" t="n">
         <v>1.289218310862305</v>
       </c>
-      <c r="H92" t="n">
+      <c r="J92" t="n">
         <v>223.2163450952512</v>
       </c>
-      <c r="I92" t="n">
+      <c r="K92" t="n">
         <v>0.1987468498976181</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>1.441201803727338</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>457.515549030878</v>
       </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -4517,7 +5713,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 5 4]</t>
+          <t>[0 6 2 ... 2 0 2]</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -4531,26 +5727,34 @@
           <t>n_init=10, max_iter=300</t>
         </is>
       </c>
-      <c r="F93" t="n">
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>[0 1 0 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 0 2 2]</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
         <v>0.1987736764835238</v>
       </c>
-      <c r="G93" t="n">
+      <c r="I93" t="n">
         <v>1.289218310862305</v>
       </c>
-      <c r="H93" t="n">
+      <c r="J93" t="n">
         <v>223.2163450952512</v>
       </c>
-      <c r="I93" t="n">
+      <c r="K93" t="n">
         <v>0.1987468498976181</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>1.441201803727338</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>457.515549030878</v>
       </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -4561,7 +5765,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 5 4]</t>
+          <t>[0 6 2 ... 2 0 2]</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -4575,26 +5779,34 @@
           <t>n_init=10, max_iter=600</t>
         </is>
       </c>
-      <c r="F94" t="n">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>[0 1 0 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 0 2 2]</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
         <v>0.1987736764835238</v>
       </c>
-      <c r="G94" t="n">
+      <c r="I94" t="n">
         <v>1.289218310862305</v>
       </c>
-      <c r="H94" t="n">
+      <c r="J94" t="n">
         <v>223.2163450952512</v>
       </c>
-      <c r="I94" t="n">
+      <c r="K94" t="n">
         <v>0.1987468498976181</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>1.441201803727338</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>457.515549030878</v>
       </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -4605,7 +5817,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[0 5 2 ... 2 0 2]</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -4619,26 +5831,34 @@
           <t>n_init=20, max_iter=100</t>
         </is>
       </c>
-      <c r="F95" t="n">
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>[0 3 0 ... 3 0 2]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 0 2 2]</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
         <v>0.1968816826749065</v>
       </c>
-      <c r="G95" t="n">
+      <c r="I95" t="n">
         <v>1.40437422007949</v>
       </c>
-      <c r="H95" t="n">
+      <c r="J95" t="n">
         <v>226.2325408298267</v>
       </c>
-      <c r="I95" t="n">
+      <c r="K95" t="n">
         <v>0.1944651975317171</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>1.322093369272476</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>396.6285065623534</v>
       </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -4649,7 +5869,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[0 5 2 ... 2 0 2]</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -4663,26 +5883,34 @@
           <t>n_init=20, max_iter=300</t>
         </is>
       </c>
-      <c r="F96" t="n">
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>[0 3 0 ... 3 0 2]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 0 2 2]</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
         <v>0.1968816826749065</v>
       </c>
-      <c r="G96" t="n">
+      <c r="I96" t="n">
         <v>1.40437422007949</v>
       </c>
-      <c r="H96" t="n">
+      <c r="J96" t="n">
         <v>226.2325408298267</v>
       </c>
-      <c r="I96" t="n">
+      <c r="K96" t="n">
         <v>0.1944651975317171</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>1.322093369272476</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>396.6285065623534</v>
       </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -4693,7 +5921,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[0 5 2 ... 2 0 2]</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -4707,26 +5935,34 @@
           <t>n_init=20, max_iter=600</t>
         </is>
       </c>
-      <c r="F97" t="n">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>[0 3 0 ... 3 0 2]</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 0 2 2]</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
         <v>0.1968816826749065</v>
       </c>
-      <c r="G97" t="n">
+      <c r="I97" t="n">
         <v>1.40437422007949</v>
       </c>
-      <c r="H97" t="n">
+      <c r="J97" t="n">
         <v>226.2325408298267</v>
       </c>
-      <c r="I97" t="n">
+      <c r="K97" t="n">
         <v>0.1944651975317171</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>1.322093369272476</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>396.6285065623534</v>
       </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -4737,7 +5973,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[3 0 4 ... 4 3 4]</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -4751,26 +5987,34 @@
           <t>n_init=50, max_iter=100</t>
         </is>
       </c>
-      <c r="F98" t="n">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>[3 2 3 ... 2 3 4]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 3 4 4]</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
         <v>0.1970894876065323</v>
       </c>
-      <c r="G98" t="n">
+      <c r="I98" t="n">
         <v>1.40401220606017</v>
       </c>
-      <c r="H98" t="n">
+      <c r="J98" t="n">
         <v>226.2326983942707</v>
       </c>
-      <c r="I98" t="n">
+      <c r="K98" t="n">
         <v>0.1948226455386295</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>1.32165919822271</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>396.6804272510608</v>
       </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -4781,7 +6025,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[3 0 4 ... 4 3 4]</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -4795,26 +6039,34 @@
           <t>n_init=50, max_iter=300</t>
         </is>
       </c>
-      <c r="F99" t="n">
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>[3 2 3 ... 2 3 4]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 3 4 4]</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
         <v>0.1970894876065323</v>
       </c>
-      <c r="G99" t="n">
+      <c r="I99" t="n">
         <v>1.40401220606017</v>
       </c>
-      <c r="H99" t="n">
+      <c r="J99" t="n">
         <v>226.2326983942707</v>
       </c>
-      <c r="I99" t="n">
+      <c r="K99" t="n">
         <v>0.1948226455386295</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>1.32165919822271</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>396.6804272510608</v>
       </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -4825,7 +6077,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[3 4 5 ... 5 1 1]</t>
+          <t>[3 0 4 ... 4 3 4]</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -4839,26 +6091,34 @@
           <t>n_init=50, max_iter=600</t>
         </is>
       </c>
-      <c r="F100" t="n">
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>[3 2 3 ... 2 3 4]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>[2 2 2 ... 3 4 4]</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
         <v>0.1970894876065323</v>
       </c>
-      <c r="G100" t="n">
+      <c r="I100" t="n">
         <v>1.40401220606017</v>
       </c>
-      <c r="H100" t="n">
+      <c r="J100" t="n">
         <v>226.2326983942707</v>
       </c>
-      <c r="I100" t="n">
+      <c r="K100" t="n">
         <v>0.1948226455386295</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>1.32165919822271</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>396.6804272510608</v>
       </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -4869,7 +6129,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[4 1 5 ... 5 4 5]</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -4883,26 +6143,34 @@
           <t>n_init=10, max_iter=100</t>
         </is>
       </c>
-      <c r="F101" t="n">
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>[4 3 4 ... 3 4 0]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 4 0 5]</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
         <v>0.2045880821334723</v>
       </c>
-      <c r="G101" t="n">
+      <c r="I101" t="n">
         <v>1.234865413895086</v>
       </c>
-      <c r="H101" t="n">
+      <c r="J101" t="n">
         <v>214.9560027310347</v>
       </c>
-      <c r="I101" t="n">
+      <c r="K101" t="n">
         <v>0.2020627252155822</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>1.343781443539946</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>395.664341199626</v>
       </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -4913,7 +6181,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[4 1 5 ... 5 4 5]</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -4927,26 +6195,34 @@
           <t>n_init=10, max_iter=300</t>
         </is>
       </c>
-      <c r="F102" t="n">
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>[4 3 4 ... 3 4 0]</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 4 0 5]</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
         <v>0.2045880821334723</v>
       </c>
-      <c r="G102" t="n">
+      <c r="I102" t="n">
         <v>1.234865413895086</v>
       </c>
-      <c r="H102" t="n">
+      <c r="J102" t="n">
         <v>214.9560027310347</v>
       </c>
-      <c r="I102" t="n">
+      <c r="K102" t="n">
         <v>0.2020627252155822</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>1.343781443539946</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>395.664341199626</v>
       </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -4957,7 +6233,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[4 1 5 ... 5 4 5]</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4971,26 +6247,34 @@
           <t>n_init=10, max_iter=600</t>
         </is>
       </c>
-      <c r="F103" t="n">
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>[4 3 4 ... 3 4 0]</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 4 0 5]</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
         <v>0.2045880821334723</v>
       </c>
-      <c r="G103" t="n">
+      <c r="I103" t="n">
         <v>1.234865413895086</v>
       </c>
-      <c r="H103" t="n">
+      <c r="J103" t="n">
         <v>214.9560027310347</v>
       </c>
-      <c r="I103" t="n">
+      <c r="K103" t="n">
         <v>0.2020627252155822</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>1.343781443539946</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>395.664341199626</v>
       </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -5001,7 +6285,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[4 1 5 ... 5 4 5]</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -5015,26 +6299,34 @@
           <t>n_init=20, max_iter=100</t>
         </is>
       </c>
-      <c r="F104" t="n">
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>[4 3 4 ... 3 4 0]</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 4 0 5]</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
         <v>0.2045880821334723</v>
       </c>
-      <c r="G104" t="n">
+      <c r="I104" t="n">
         <v>1.234865413895086</v>
       </c>
-      <c r="H104" t="n">
+      <c r="J104" t="n">
         <v>214.9560027310347</v>
       </c>
-      <c r="I104" t="n">
+      <c r="K104" t="n">
         <v>0.2020627252155822</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>1.343781443539946</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>395.664341199626</v>
       </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -5045,7 +6337,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[4 1 5 ... 5 4 5]</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -5059,26 +6351,34 @@
           <t>n_init=20, max_iter=300</t>
         </is>
       </c>
-      <c r="F105" t="n">
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>[4 3 4 ... 3 4 0]</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 4 0 5]</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
         <v>0.2045880821334723</v>
       </c>
-      <c r="G105" t="n">
+      <c r="I105" t="n">
         <v>1.234865413895086</v>
       </c>
-      <c r="H105" t="n">
+      <c r="J105" t="n">
         <v>214.9560027310347</v>
       </c>
-      <c r="I105" t="n">
+      <c r="K105" t="n">
         <v>0.2020627252155822</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>1.343781443539946</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>395.664341199626</v>
       </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -5089,7 +6389,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[3 4 2 ... 2 0 0]</t>
+          <t>[4 1 5 ... 5 4 5]</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -5103,26 +6403,34 @@
           <t>n_init=20, max_iter=600</t>
         </is>
       </c>
-      <c r="F106" t="n">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>[4 3 4 ... 3 4 0]</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 4 0 5]</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
         <v>0.2045880821334723</v>
       </c>
-      <c r="G106" t="n">
+      <c r="I106" t="n">
         <v>1.234865413895086</v>
       </c>
-      <c r="H106" t="n">
+      <c r="J106" t="n">
         <v>214.9560027310347</v>
       </c>
-      <c r="I106" t="n">
+      <c r="K106" t="n">
         <v>0.2020627252155822</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>1.343781443539946</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>395.664341199626</v>
       </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -5133,7 +6441,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 4 4]</t>
+          <t>[4 1 5 ... 5 4 5]</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -5147,26 +6455,34 @@
           <t>n_init=50, max_iter=100</t>
         </is>
       </c>
-      <c r="F107" t="n">
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>[4 3 4 ... 3 4 0]</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 4 0 5]</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
         <v>0.2045880821334723</v>
       </c>
-      <c r="G107" t="n">
+      <c r="I107" t="n">
         <v>1.234865413895086</v>
       </c>
-      <c r="H107" t="n">
+      <c r="J107" t="n">
         <v>214.9560027310347</v>
       </c>
-      <c r="I107" t="n">
+      <c r="K107" t="n">
         <v>0.2020627252155822</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>1.343781443539946</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>395.664341199626</v>
       </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -5177,7 +6493,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 4 4]</t>
+          <t>[4 1 5 ... 5 4 5]</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -5191,26 +6507,34 @@
           <t>n_init=50, max_iter=300</t>
         </is>
       </c>
-      <c r="F108" t="n">
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>[4 3 4 ... 3 4 0]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 4 0 5]</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
         <v>0.2045880821334723</v>
       </c>
-      <c r="G108" t="n">
+      <c r="I108" t="n">
         <v>1.234865413895086</v>
       </c>
-      <c r="H108" t="n">
+      <c r="J108" t="n">
         <v>214.9560027310347</v>
       </c>
-      <c r="I108" t="n">
+      <c r="K108" t="n">
         <v>0.2020627252155822</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>1.343781443539946</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>395.664341199626</v>
       </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -5221,7 +6545,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[0 1 4 ... 4 4 4]</t>
+          <t>[4 1 5 ... 5 4 5]</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -5235,26 +6559,34 @@
           <t>n_init=50, max_iter=600</t>
         </is>
       </c>
-      <c r="F109" t="n">
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[4 3 4 ... 3 4 0]</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>[3 3 3 ... 4 0 5]</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
         <v>0.2045880821334723</v>
       </c>
-      <c r="G109" t="n">
+      <c r="I109" t="n">
         <v>1.234865413895086</v>
       </c>
-      <c r="H109" t="n">
+      <c r="J109" t="n">
         <v>214.9560027310347</v>
       </c>
-      <c r="I109" t="n">
+      <c r="K109" t="n">
         <v>0.2020627252155822</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>1.343781443539946</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>395.664341199626</v>
       </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -5279,25 +6611,7 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F110" t="n">
-        <v>0.1503485853198622</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1.840226849444759</v>
-      </c>
-      <c r="H110" t="n">
-        <v>73.67147806334457</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.1608270652759218</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1.843501882233148</v>
-      </c>
-      <c r="K110" t="n">
-        <v>571.7111606633954</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>[2 1 1 1 0 2 2 0 0 0 2 2 2 0 1 1 2 0 0 0 2 0 2 2 0 1 2 0 2 2 1 0 2 2 1 2 1
  1 2 2 0 2 1 1 0 0 2 0 2 1 0 0 2 2 0 0 2 1 0 2 0 0 2 0 2 0 0 0 0 2 0 0 2 2
@@ -5315,10 +6629,28 @@
  0 2 2 2 0 0 0 0 0 0 2 2 0 2 1 0 0 2 2]</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>[0 0 0 ... 0 2 0]</t>
         </is>
+      </c>
+      <c r="H110" t="n">
+        <v>0.1503485853198622</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.840226849444759</v>
+      </c>
+      <c r="J110" t="n">
+        <v>73.67147806334457</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.1608270652759218</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1.843501882233148</v>
+      </c>
+      <c r="M110" t="n">
+        <v>571.7111606633954</v>
       </c>
       <c r="N110" t="inlineStr"/>
     </row>
@@ -5344,25 +6676,7 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F111" t="n">
-        <v>0.1877183749562705</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1.589148172543808</v>
-      </c>
-      <c r="H111" t="n">
-        <v>69.08290187528421</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.172888411336078</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.643229469680661</v>
-      </c>
-      <c r="K111" t="n">
-        <v>512.5966383750005</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>[2 0 0 0 1 2 2 1 3 3 2 2 2 3 0 0 2 1 3 1 2 3 2 2 1 0 2 1 2 2 0 1 2 2 0 2 0
  0 2 2 1 2 0 0 1 1 2 1 2 0 1 1 2 2 3 1 2 0 1 2 1 1 2 1 2 1 3 1 1 2 3 1 2 2
@@ -5380,10 +6694,28 @@
  1 2 2 2 1 1 1 1 1 3 2 2 1 2 0 1 3 2 2]</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>[3 3 3 ... 0 4 0]</t>
         </is>
+      </c>
+      <c r="H111" t="n">
+        <v>0.1877183749562705</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.589148172543808</v>
+      </c>
+      <c r="J111" t="n">
+        <v>69.08290187528421</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.172888411336078</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1.643229469680661</v>
+      </c>
+      <c r="M111" t="n">
+        <v>512.5966383750005</v>
       </c>
       <c r="N111" t="inlineStr"/>
     </row>
@@ -5409,25 +6741,7 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F112" t="n">
-        <v>0.1984543460242321</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1.466709746573222</v>
-      </c>
-      <c r="H112" t="n">
-        <v>65.02920140671196</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.1530371246059151</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1.67969069951093</v>
-      </c>
-      <c r="K112" t="n">
-        <v>487.3067185597668</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>[2 1 5 1 0 2 2 0 3 3 2 2 2 3 1 1 2 0 3 0 2 3 2 2 0 1 2 0 2 2 1 0 2 2 1 2 1
  1 2 2 0 2 1 1 6 0 2 6 2 1 6 0 2 2 3 0 2 1 0 2 0 0 2 0 2 0 3 0 0 2 3 0 2 2
@@ -5445,10 +6759,28 @@
  0 2 2 2 0 0 0 0 0 3 2 2 0 2 5 0 3 2 2]</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>[3 3 3 ... 0 4 0]</t>
         </is>
+      </c>
+      <c r="H112" t="n">
+        <v>0.1984543460242321</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.466709746573222</v>
+      </c>
+      <c r="J112" t="n">
+        <v>65.02920140671196</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.1530371246059151</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1.67969069951093</v>
+      </c>
+      <c r="M112" t="n">
+        <v>487.3067185597668</v>
       </c>
       <c r="N112" t="inlineStr"/>
     </row>
@@ -5474,25 +6806,7 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F113" t="n">
-        <v>0.1637570184228397</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1.482100370279539</v>
-      </c>
-      <c r="H113" t="n">
-        <v>64.03960617770635</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.1592345131769266</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.523760625003768</v>
-      </c>
-      <c r="K113" t="n">
-        <v>467.3302422142067</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>[8 0 5 0 6 8 4 6 7 7 4 4 4 7 0 0 4 6 7 6 4 7 4 4 6 0 8 6 4 8 0 3 4 4 0 4 0
  0 8 8 6 8 0 0 2 6 4 2 4 0 2 6 8 4 7 6 4 0 6 8 6 6 4 3 4 3 7 3 6 4 7 6 4 4
@@ -5510,10 +6824,28 @@
  3 8 8 4 6 6 6 3 3 7 8 8 3 4 5 6 7 4 8]</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>[3 3 3 ... 1 4 1]</t>
         </is>
+      </c>
+      <c r="H113" t="n">
+        <v>0.1637570184228397</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.482100370279539</v>
+      </c>
+      <c r="J113" t="n">
+        <v>64.03960617770635</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.1592345131769266</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1.523760625003768</v>
+      </c>
+      <c r="M113" t="n">
+        <v>467.3302422142067</v>
       </c>
       <c r="N113" t="inlineStr"/>
     </row>
@@ -5539,33 +6871,33 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F114" t="n">
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[2 1 1 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 1 1 0]</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
         <v>0.1927273212076082</v>
       </c>
-      <c r="G114" t="n">
+      <c r="I114" t="n">
         <v>1.519570495336826</v>
       </c>
-      <c r="H114" t="n">
+      <c r="J114" t="n">
         <v>208.9552006146543</v>
       </c>
-      <c r="I114" t="n">
+      <c r="K114" t="n">
         <v>0.1738117660768863</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>1.828331702198371</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>489.5185162381248</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>[2 1 1 ... 1 0 0]</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>[1 1 1 ... 1 1 0]</t>
-        </is>
       </c>
       <c r="N114" t="inlineStr"/>
     </row>
@@ -5591,33 +6923,33 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F115" t="n">
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[2 0 0 ... 4 1 1]</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>[4 4 4 ... 1 1 0]</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
         <v>0.1573958530645425</v>
       </c>
-      <c r="G115" t="n">
+      <c r="I115" t="n">
         <v>1.520337693118183</v>
       </c>
-      <c r="H115" t="n">
+      <c r="J115" t="n">
         <v>188.3950828270419</v>
       </c>
-      <c r="I115" t="n">
+      <c r="K115" t="n">
         <v>0.1807812753336798</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>1.631653511881133</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>451.0669820259272</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>[2 0 0 ... 4 1 1]</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>[4 4 4 ... 1 1 0]</t>
-        </is>
       </c>
       <c r="N115" t="inlineStr"/>
     </row>
@@ -5643,33 +6975,33 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F116" t="n">
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[5 6 6 ... 4 1 1]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>[4 4 4 ... 5 6 2]</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
         <v>0.149320503458999</v>
       </c>
-      <c r="G116" t="n">
+      <c r="I116" t="n">
         <v>1.568870624208427</v>
       </c>
-      <c r="H116" t="n">
+      <c r="J116" t="n">
         <v>173.2086659126465</v>
       </c>
-      <c r="I116" t="n">
+      <c r="K116" t="n">
         <v>0.1853839140522806</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>1.477881659178251</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>410.7446862296003</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>[5 6 6 ... 4 1 1]</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>[4 4 4 ... 5 6 2]</t>
-        </is>
       </c>
       <c r="N116" t="inlineStr"/>
     </row>
@@ -5695,33 +7027,33 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F117" t="n">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[5 6 6 ... 4 8 8]</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>[4 4 4 ... 2 6 0]</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
         <v>0.1328550746055286</v>
       </c>
-      <c r="G117" t="n">
+      <c r="I117" t="n">
         <v>1.367201941098314</v>
       </c>
-      <c r="H117" t="n">
+      <c r="J117" t="n">
         <v>165.6808822857441</v>
       </c>
-      <c r="I117" t="n">
+      <c r="K117" t="n">
         <v>0.1893248700291761</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>1.145778385308178</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>397.0488913963191</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>[5 6 6 ... 4 8 8]</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>[4 4 4 ... 2 6 0]</t>
-        </is>
       </c>
       <c r="N117" t="inlineStr"/>
     </row>
@@ -5747,33 +7079,33 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F118" t="n">
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>[0 1 0 ... 1 0 0]</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>[1 1 1 ... 0 0 0]</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
         <v>0.1865096786785264</v>
       </c>
-      <c r="G118" t="n">
+      <c r="I118" t="n">
         <v>1.518394216685981</v>
       </c>
-      <c r="H118" t="n">
+      <c r="J118" t="n">
         <v>211.1278826552671</v>
       </c>
-      <c r="I118" t="n">
+      <c r="K118" t="n">
         <v>0.1652911665094303</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>1.900175644027823</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>453.1534287434569</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>[0 1 0 ... 1 0 0]</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>[1 1 1 ... 0 0 0]</t>
-        </is>
       </c>
       <c r="N118" t="inlineStr"/>
     </row>
@@ -5799,33 +7131,33 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F119" t="n">
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[3 0 4 ... 0 4 4]</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>[4 4 4 ... 1 1 1]</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
         <v>0.1555464498820703</v>
       </c>
-      <c r="G119" t="n">
+      <c r="I119" t="n">
         <v>1.478352550785804</v>
       </c>
-      <c r="H119" t="n">
+      <c r="J119" t="n">
         <v>199.5102614870168</v>
       </c>
-      <c r="I119" t="n">
+      <c r="K119" t="n">
         <v>0.1870993780776087</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>1.679393800782441</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>405.4147691667346</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>[3 0 4 ... 0 4 4]</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>[4 4 4 ... 1 1 1]</t>
-        </is>
       </c>
       <c r="N119" t="inlineStr"/>
     </row>
@@ -5851,33 +7183,33 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F120" t="n">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[3 2 1 ... 2 1 1]</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>[4 4 4 ... 5 6 5]</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
         <v>0.1853510702179116</v>
       </c>
-      <c r="G120" t="n">
+      <c r="I120" t="n">
         <v>1.244612768657496</v>
       </c>
-      <c r="H120" t="n">
+      <c r="J120" t="n">
         <v>198.7137756307945</v>
       </c>
-      <c r="I120" t="n">
+      <c r="K120" t="n">
         <v>0.1762391591659525</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>1.517261274553561</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>379.3444667471501</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>[3 2 1 ... 2 1 1]</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>[4 4 4 ... 5 6 5]</t>
-        </is>
       </c>
       <c r="N120" t="inlineStr"/>
     </row>
@@ -5903,33 +7235,33 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F121" t="n">
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[1 2 0 ... 2 0 0]</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>[4 4 4 ... 2 6 2]</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
         <v>0.1537495508201505</v>
       </c>
-      <c r="G121" t="n">
+      <c r="I121" t="n">
         <v>1.226837871516953</v>
       </c>
-      <c r="H121" t="n">
+      <c r="J121" t="n">
         <v>188.7446724345377</v>
       </c>
-      <c r="I121" t="n">
+      <c r="K121" t="n">
         <v>0.180754611384583</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>1.190891303568838</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>377.3459345004618</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>[1 2 0 ... 2 0 0]</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>[4 4 4 ... 2 6 2]</t>
-        </is>
       </c>
       <c r="N121" t="inlineStr"/>
     </row>
@@ -5955,26 +7287,26 @@
           <t>max_iter=100</t>
         </is>
       </c>
-      <c r="F122" t="n">
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="n">
         <v>0.1198446863069073</v>
       </c>
-      <c r="G122" t="n">
+      <c r="I122" t="n">
         <v>2.073768890412941</v>
       </c>
-      <c r="H122" t="n">
+      <c r="J122" t="n">
         <v>69.71868345298834</v>
       </c>
-      <c r="I122" t="n">
+      <c r="K122" t="n">
         <v>0.1025333451135537</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>2.16817515472678</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>466.6858697706385</v>
       </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
           <t>[[0.00000000e+00 6.63984772e-14 1.00000000e+00]
@@ -6009,26 +7341,26 @@
           <t>max_iter=300</t>
         </is>
       </c>
-      <c r="F123" t="n">
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="n">
         <v>0.1198446863069073</v>
       </c>
-      <c r="G123" t="n">
+      <c r="I123" t="n">
         <v>2.073768890412941</v>
       </c>
-      <c r="H123" t="n">
+      <c r="J123" t="n">
         <v>69.71868345298834</v>
       </c>
-      <c r="I123" t="n">
+      <c r="K123" t="n">
         <v>0.1025333451135537</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>2.16817515472678</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>466.6858697706385</v>
       </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
           <t>[[0.00000000e+00 6.63984772e-14 1.00000000e+00]
@@ -6063,26 +7395,26 @@
           <t>max_iter=600</t>
         </is>
       </c>
-      <c r="F124" t="n">
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="n">
         <v>0.1198446863069073</v>
       </c>
-      <c r="G124" t="n">
+      <c r="I124" t="n">
         <v>2.073768890412941</v>
       </c>
-      <c r="H124" t="n">
+      <c r="J124" t="n">
         <v>69.71868345298834</v>
       </c>
-      <c r="I124" t="n">
+      <c r="K124" t="n">
         <v>0.1025333451135537</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>2.16817515472678</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>466.6858697706385</v>
       </c>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
           <t>[[0.00000000e+00 6.63984772e-14 1.00000000e+00]
@@ -6117,26 +7449,26 @@
           <t>max_iter=100</t>
         </is>
       </c>
-      <c r="F125" t="n">
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="n">
         <v>0.1531134150354862</v>
       </c>
-      <c r="G125" t="n">
+      <c r="I125" t="n">
         <v>1.788762650353396</v>
       </c>
-      <c r="H125" t="n">
+      <c r="J125" t="n">
         <v>63.16021394339744</v>
       </c>
-      <c r="I125" t="n">
+      <c r="K125" t="n">
         <v>0.1396377095509075</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>2.153790774753607</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>366.3689200116146</v>
       </c>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
           <t>[[9.66811111e-001 0.00000000e+000 0.00000000e+000 3.31888890e-002
@@ -6177,26 +7509,26 @@
           <t>max_iter=300</t>
         </is>
       </c>
-      <c r="F126" t="n">
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="n">
         <v>0.1531134150354862</v>
       </c>
-      <c r="G126" t="n">
+      <c r="I126" t="n">
         <v>1.788762650353396</v>
       </c>
-      <c r="H126" t="n">
+      <c r="J126" t="n">
         <v>63.16021394339744</v>
       </c>
-      <c r="I126" t="n">
+      <c r="K126" t="n">
         <v>0.1396377095509075</v>
       </c>
-      <c r="J126" t="n">
+      <c r="L126" t="n">
         <v>2.153790774753607</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>366.3689200116146</v>
       </c>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
           <t>[[9.66811111e-001 0.00000000e+000 0.00000000e+000 3.31888890e-002
@@ -6237,26 +7569,26 @@
           <t>max_iter=600</t>
         </is>
       </c>
-      <c r="F127" t="n">
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="n">
         <v>0.1531134150354862</v>
       </c>
-      <c r="G127" t="n">
+      <c r="I127" t="n">
         <v>1.788762650353396</v>
       </c>
-      <c r="H127" t="n">
+      <c r="J127" t="n">
         <v>63.16021394339744</v>
       </c>
-      <c r="I127" t="n">
+      <c r="K127" t="n">
         <v>0.1396377095509075</v>
       </c>
-      <c r="J127" t="n">
+      <c r="L127" t="n">
         <v>2.153790774753607</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>366.3689200116146</v>
       </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
           <t>[[9.66811111e-001 0.00000000e+000 0.00000000e+000 3.31888890e-002
@@ -6297,26 +7629,26 @@
           <t>max_iter=100</t>
         </is>
       </c>
-      <c r="F128" t="n">
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="n">
         <v>0.1299834332887691</v>
       </c>
-      <c r="G128" t="n">
+      <c r="I128" t="n">
         <v>1.776351748691004</v>
       </c>
-      <c r="H128" t="n">
+      <c r="J128" t="n">
         <v>61.02861760832482</v>
       </c>
-      <c r="I128" t="n">
+      <c r="K128" t="n">
         <v>0.1164856220621611</v>
       </c>
-      <c r="J128" t="n">
+      <c r="L128" t="n">
         <v>2.029563019578066</v>
       </c>
-      <c r="K128" t="n">
+      <c r="M128" t="n">
         <v>263.4408651576707</v>
       </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
           <t>[[1.65189287e-024 1.52740155e-048 0.00000000e+000 ... 0.00000000e+000
@@ -6357,26 +7689,26 @@
           <t>max_iter=300</t>
         </is>
       </c>
-      <c r="F129" t="n">
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="n">
         <v>0.1299834332887691</v>
       </c>
-      <c r="G129" t="n">
+      <c r="I129" t="n">
         <v>1.776351748691004</v>
       </c>
-      <c r="H129" t="n">
+      <c r="J129" t="n">
         <v>61.02861760832482</v>
       </c>
-      <c r="I129" t="n">
+      <c r="K129" t="n">
         <v>0.1164856220621611</v>
       </c>
-      <c r="J129" t="n">
+      <c r="L129" t="n">
         <v>2.029563019578066</v>
       </c>
-      <c r="K129" t="n">
+      <c r="M129" t="n">
         <v>263.4408651576707</v>
       </c>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
           <t>[[1.65189287e-024 1.52740155e-048 0.00000000e+000 ... 0.00000000e+000
@@ -6417,26 +7749,26 @@
           <t>max_iter=600</t>
         </is>
       </c>
-      <c r="F130" t="n">
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="n">
         <v>0.1299834332887691</v>
       </c>
-      <c r="G130" t="n">
+      <c r="I130" t="n">
         <v>1.776351748691004</v>
       </c>
-      <c r="H130" t="n">
+      <c r="J130" t="n">
         <v>61.02861760832482</v>
       </c>
-      <c r="I130" t="n">
+      <c r="K130" t="n">
         <v>0.1164856220621611</v>
       </c>
-      <c r="J130" t="n">
+      <c r="L130" t="n">
         <v>2.029563019578066</v>
       </c>
-      <c r="K130" t="n">
+      <c r="M130" t="n">
         <v>263.4408651576707</v>
       </c>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
           <t>[[1.65189287e-024 1.52740155e-048 0.00000000e+000 ... 0.00000000e+000
@@ -6477,26 +7809,26 @@
           <t>max_iter=100</t>
         </is>
       </c>
-      <c r="F131" t="n">
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="n">
         <v>0.157882917534893</v>
       </c>
-      <c r="G131" t="n">
+      <c r="I131" t="n">
         <v>1.471861401345992</v>
       </c>
-      <c r="H131" t="n">
+      <c r="J131" t="n">
         <v>61.99482358261987</v>
       </c>
-      <c r="I131" t="n">
+      <c r="K131" t="n">
         <v>0.1406915258157933</v>
       </c>
-      <c r="J131" t="n">
+      <c r="L131" t="n">
         <v>1.966067546043085</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>377.1738632512873</v>
       </c>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
           <t>[[9.91994827e-001 1.20876068e-048 0.00000000e+000 ... 0.00000000e+000
@@ -6537,26 +7869,26 @@
           <t>max_iter=300</t>
         </is>
       </c>
-      <c r="F132" t="n">
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="n">
         <v>0.157882917534893</v>
       </c>
-      <c r="G132" t="n">
+      <c r="I132" t="n">
         <v>1.471861401345992</v>
       </c>
-      <c r="H132" t="n">
+      <c r="J132" t="n">
         <v>61.99482358261987</v>
       </c>
-      <c r="I132" t="n">
+      <c r="K132" t="n">
         <v>0.1406915258157933</v>
       </c>
-      <c r="J132" t="n">
+      <c r="L132" t="n">
         <v>1.966067546043085</v>
       </c>
-      <c r="K132" t="n">
+      <c r="M132" t="n">
         <v>377.1738632512873</v>
       </c>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
           <t>[[9.91994827e-001 1.20876068e-048 0.00000000e+000 ... 0.00000000e+000
@@ -6597,26 +7929,26 @@
           <t>max_iter=600</t>
         </is>
       </c>
-      <c r="F133" t="n">
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="n">
         <v>0.157882917534893</v>
       </c>
-      <c r="G133" t="n">
+      <c r="I133" t="n">
         <v>1.471861401345992</v>
       </c>
-      <c r="H133" t="n">
+      <c r="J133" t="n">
         <v>61.99482358261987</v>
       </c>
-      <c r="I133" t="n">
+      <c r="K133" t="n">
         <v>0.1406915258157933</v>
       </c>
-      <c r="J133" t="n">
+      <c r="L133" t="n">
         <v>1.966067546043085</v>
       </c>
-      <c r="K133" t="n">
+      <c r="M133" t="n">
         <v>377.1738632512873</v>
       </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
           <t>[[9.91994827e-001 1.20876068e-048 0.00000000e+000 ... 0.00000000e+000
@@ -6657,26 +7989,26 @@
           <t>max_iter=100</t>
         </is>
       </c>
-      <c r="F134" t="n">
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="n">
         <v>0.1048970623470996</v>
       </c>
-      <c r="G134" t="n">
+      <c r="I134" t="n">
         <v>2.337939951350052</v>
       </c>
-      <c r="H134" t="n">
+      <c r="J134" t="n">
         <v>140.7338690100349</v>
       </c>
-      <c r="I134" t="n">
+      <c r="K134" t="n">
         <v>0.1051963437555255</v>
       </c>
-      <c r="J134" t="n">
+      <c r="L134" t="n">
         <v>2.42796795698785</v>
       </c>
-      <c r="K134" t="n">
+      <c r="M134" t="n">
         <v>363.2549081463343</v>
       </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
           <t>[[2.24288591e-012 1.42279225e-013 1.00000000e+000]
@@ -6711,26 +8043,26 @@
           <t>max_iter=300</t>
         </is>
       </c>
-      <c r="F135" t="n">
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="n">
         <v>0.1048970623470996</v>
       </c>
-      <c r="G135" t="n">
+      <c r="I135" t="n">
         <v>2.337939951350052</v>
       </c>
-      <c r="H135" t="n">
+      <c r="J135" t="n">
         <v>140.7338690100349</v>
       </c>
-      <c r="I135" t="n">
+      <c r="K135" t="n">
         <v>0.1051963437555255</v>
       </c>
-      <c r="J135" t="n">
+      <c r="L135" t="n">
         <v>2.42796795698785</v>
       </c>
-      <c r="K135" t="n">
+      <c r="M135" t="n">
         <v>363.2549081463343</v>
       </c>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
           <t>[[2.24288591e-012 1.42279225e-013 1.00000000e+000]
@@ -6765,26 +8097,26 @@
           <t>max_iter=600</t>
         </is>
       </c>
-      <c r="F136" t="n">
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="n">
         <v>0.1048970623470996</v>
       </c>
-      <c r="G136" t="n">
+      <c r="I136" t="n">
         <v>2.337939951350052</v>
       </c>
-      <c r="H136" t="n">
+      <c r="J136" t="n">
         <v>140.7338690100349</v>
       </c>
-      <c r="I136" t="n">
+      <c r="K136" t="n">
         <v>0.1051963437555255</v>
       </c>
-      <c r="J136" t="n">
+      <c r="L136" t="n">
         <v>2.42796795698785</v>
       </c>
-      <c r="K136" t="n">
+      <c r="M136" t="n">
         <v>363.2549081463343</v>
       </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
           <t>[[2.24288591e-012 1.42279225e-013 1.00000000e+000]
@@ -6819,26 +8151,26 @@
           <t>max_iter=100</t>
         </is>
       </c>
-      <c r="F137" t="n">
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="n">
         <v>0.1634925797205943</v>
       </c>
-      <c r="G137" t="n">
+      <c r="I137" t="n">
         <v>1.613118787509026</v>
       </c>
-      <c r="H137" t="n">
+      <c r="J137" t="n">
         <v>172.9530884676406</v>
       </c>
-      <c r="I137" t="n">
+      <c r="K137" t="n">
         <v>0.1385948700996524</v>
       </c>
-      <c r="J137" t="n">
+      <c r="L137" t="n">
         <v>1.990587859346492</v>
       </c>
-      <c r="K137" t="n">
+      <c r="M137" t="n">
         <v>353.7118273602764</v>
       </c>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
           <t>[[9.55325287e-001 4.46747127e-002 0.00000000e+000 3.89553665e-027
@@ -6879,26 +8211,26 @@
           <t>max_iter=300</t>
         </is>
       </c>
-      <c r="F138" t="n">
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="n">
         <v>0.1634925797205943</v>
       </c>
-      <c r="G138" t="n">
+      <c r="I138" t="n">
         <v>1.613118787509026</v>
       </c>
-      <c r="H138" t="n">
+      <c r="J138" t="n">
         <v>172.9530884676406</v>
       </c>
-      <c r="I138" t="n">
+      <c r="K138" t="n">
         <v>0.1385948700996524</v>
       </c>
-      <c r="J138" t="n">
+      <c r="L138" t="n">
         <v>1.990587859346492</v>
       </c>
-      <c r="K138" t="n">
+      <c r="M138" t="n">
         <v>353.7118273602764</v>
       </c>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
           <t>[[9.55325287e-001 4.46747127e-002 0.00000000e+000 3.89553665e-027
@@ -6939,26 +8271,26 @@
           <t>max_iter=600</t>
         </is>
       </c>
-      <c r="F139" t="n">
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="n">
         <v>0.1634925797205943</v>
       </c>
-      <c r="G139" t="n">
+      <c r="I139" t="n">
         <v>1.613118787509026</v>
       </c>
-      <c r="H139" t="n">
+      <c r="J139" t="n">
         <v>172.9530884676406</v>
       </c>
-      <c r="I139" t="n">
+      <c r="K139" t="n">
         <v>0.1385948700996524</v>
       </c>
-      <c r="J139" t="n">
+      <c r="L139" t="n">
         <v>1.990587859346492</v>
       </c>
-      <c r="K139" t="n">
+      <c r="M139" t="n">
         <v>353.7118273602764</v>
       </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
           <t>[[9.55325287e-001 4.46747127e-002 0.00000000e+000 3.89553665e-027
@@ -6999,26 +8331,26 @@
           <t>max_iter=100</t>
         </is>
       </c>
-      <c r="F140" t="n">
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="n">
         <v>0.1793473939253331</v>
       </c>
-      <c r="G140" t="n">
+      <c r="I140" t="n">
         <v>1.67243461101476</v>
       </c>
-      <c r="H140" t="n">
+      <c r="J140" t="n">
         <v>153.0867261718639</v>
       </c>
-      <c r="I140" t="n">
+      <c r="K140" t="n">
         <v>0.1639590290622862</v>
       </c>
-      <c r="J140" t="n">
+      <c r="L140" t="n">
         <v>1.958327097310964</v>
       </c>
-      <c r="K140" t="n">
+      <c r="M140" t="n">
         <v>318.4470238298087</v>
       </c>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
           <t>[[0.00000000e+000 9.99930079e-001 1.38946132e-069 ... 0.00000000e+000
@@ -7059,26 +8391,26 @@
           <t>max_iter=300</t>
         </is>
       </c>
-      <c r="F141" t="n">
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="n">
         <v>0.1793473939253331</v>
       </c>
-      <c r="G141" t="n">
+      <c r="I141" t="n">
         <v>1.67243461101476</v>
       </c>
-      <c r="H141" t="n">
+      <c r="J141" t="n">
         <v>153.0867261718639</v>
       </c>
-      <c r="I141" t="n">
+      <c r="K141" t="n">
         <v>0.1639590290622862</v>
       </c>
-      <c r="J141" t="n">
+      <c r="L141" t="n">
         <v>1.958327097310964</v>
       </c>
-      <c r="K141" t="n">
+      <c r="M141" t="n">
         <v>318.4470238298087</v>
       </c>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr">
         <is>
           <t>[[0.00000000e+000 9.99930079e-001 1.38946132e-069 ... 0.00000000e+000
@@ -7119,26 +8451,26 @@
           <t>max_iter=600</t>
         </is>
       </c>
-      <c r="F142" t="n">
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="n">
         <v>0.1793473939253331</v>
       </c>
-      <c r="G142" t="n">
+      <c r="I142" t="n">
         <v>1.67243461101476</v>
       </c>
-      <c r="H142" t="n">
+      <c r="J142" t="n">
         <v>153.0867261718639</v>
       </c>
-      <c r="I142" t="n">
+      <c r="K142" t="n">
         <v>0.1639590290622862</v>
       </c>
-      <c r="J142" t="n">
+      <c r="L142" t="n">
         <v>1.958327097310964</v>
       </c>
-      <c r="K142" t="n">
+      <c r="M142" t="n">
         <v>318.4470238298087</v>
       </c>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr">
         <is>
           <t>[[0.00000000e+000 9.99930079e-001 1.38946132e-069 ... 0.00000000e+000
@@ -7179,26 +8511,26 @@
           <t>max_iter=100</t>
         </is>
       </c>
-      <c r="F143" t="n">
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="n">
         <v>0.09404047350408389</v>
       </c>
-      <c r="G143" t="n">
+      <c r="I143" t="n">
         <v>2.003772520077169</v>
       </c>
-      <c r="H143" t="n">
+      <c r="J143" t="n">
         <v>115.2043389289743</v>
       </c>
-      <c r="I143" t="n">
+      <c r="K143" t="n">
         <v>0.07542645906710792</v>
       </c>
-      <c r="J143" t="n">
+      <c r="L143" t="n">
         <v>2.414257571185273</v>
       </c>
-      <c r="K143" t="n">
+      <c r="M143" t="n">
         <v>200.6142930620027</v>
       </c>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
           <t>[[0.00000000e+000 9.99867321e-001 0.00000000e+000 ... 0.00000000e+000
@@ -7239,26 +8571,26 @@
           <t>max_iter=300</t>
         </is>
       </c>
-      <c r="F144" t="n">
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="n">
         <v>0.09404047350408389</v>
       </c>
-      <c r="G144" t="n">
+      <c r="I144" t="n">
         <v>2.003772520077169</v>
       </c>
-      <c r="H144" t="n">
+      <c r="J144" t="n">
         <v>115.2043389289743</v>
       </c>
-      <c r="I144" t="n">
+      <c r="K144" t="n">
         <v>0.07542645906710792</v>
       </c>
-      <c r="J144" t="n">
+      <c r="L144" t="n">
         <v>2.414257571185273</v>
       </c>
-      <c r="K144" t="n">
+      <c r="M144" t="n">
         <v>200.6142930620027</v>
       </c>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
           <t>[[0.00000000e+000 9.99867321e-001 0.00000000e+000 ... 0.00000000e+000
@@ -7299,26 +8631,26 @@
           <t>max_iter=600</t>
         </is>
       </c>
-      <c r="F145" t="n">
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="n">
         <v>0.09404047350408389</v>
       </c>
-      <c r="G145" t="n">
+      <c r="I145" t="n">
         <v>2.003772520077169</v>
       </c>
-      <c r="H145" t="n">
+      <c r="J145" t="n">
         <v>115.2043389289743</v>
       </c>
-      <c r="I145" t="n">
+      <c r="K145" t="n">
         <v>0.07542645906710792</v>
       </c>
-      <c r="J145" t="n">
+      <c r="L145" t="n">
         <v>2.414257571185273</v>
       </c>
-      <c r="K145" t="n">
+      <c r="M145" t="n">
         <v>200.6142930620027</v>
       </c>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
           <t>[[0.00000000e+000 9.99867321e-001 0.00000000e+000 ... 0.00000000e+000
@@ -7359,26 +8691,26 @@
           <t>max_iter=100</t>
         </is>
       </c>
-      <c r="F146" t="n">
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="n">
         <v>0.1718084680696776</v>
       </c>
-      <c r="G146" t="n">
+      <c r="I146" t="n">
         <v>1.664169146553974</v>
       </c>
-      <c r="H146" t="n">
+      <c r="J146" t="n">
         <v>236.9396571138605</v>
       </c>
-      <c r="I146" t="n">
+      <c r="K146" t="n">
         <v>0.1618577581662073</v>
       </c>
-      <c r="J146" t="n">
+      <c r="L146" t="n">
         <v>2.00558661583292</v>
       </c>
-      <c r="K146" t="n">
+      <c r="M146" t="n">
         <v>506.6931813820131</v>
       </c>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
           <t>[[1.00000000e+00 6.30936096e-16 0.00000000e+00]
@@ -7413,26 +8745,26 @@
           <t>max_iter=300</t>
         </is>
       </c>
-      <c r="F147" t="n">
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="n">
         <v>0.1718084680696776</v>
       </c>
-      <c r="G147" t="n">
+      <c r="I147" t="n">
         <v>1.664169146553974</v>
       </c>
-      <c r="H147" t="n">
+      <c r="J147" t="n">
         <v>236.9396571138605</v>
       </c>
-      <c r="I147" t="n">
+      <c r="K147" t="n">
         <v>0.1618577581662073</v>
       </c>
-      <c r="J147" t="n">
+      <c r="L147" t="n">
         <v>2.00558661583292</v>
       </c>
-      <c r="K147" t="n">
+      <c r="M147" t="n">
         <v>506.6931813820131</v>
       </c>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
           <t>[[1.00000000e+00 6.30936096e-16 0.00000000e+00]
@@ -7467,26 +8799,26 @@
           <t>max_iter=600</t>
         </is>
       </c>
-      <c r="F148" t="n">
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="n">
         <v>0.1718084680696776</v>
       </c>
-      <c r="G148" t="n">
+      <c r="I148" t="n">
         <v>1.664169146553974</v>
       </c>
-      <c r="H148" t="n">
+      <c r="J148" t="n">
         <v>236.9396571138605</v>
       </c>
-      <c r="I148" t="n">
+      <c r="K148" t="n">
         <v>0.1618577581662073</v>
       </c>
-      <c r="J148" t="n">
+      <c r="L148" t="n">
         <v>2.00558661583292</v>
       </c>
-      <c r="K148" t="n">
+      <c r="M148" t="n">
         <v>506.6931813820131</v>
       </c>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
           <t>[[1.00000000e+00 6.30936096e-16 0.00000000e+00]
@@ -7521,26 +8853,26 @@
           <t>max_iter=100</t>
         </is>
       </c>
-      <c r="F149" t="n">
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="n">
         <v>0.169884626774626</v>
       </c>
-      <c r="G149" t="n">
+      <c r="I149" t="n">
         <v>1.695891834942989</v>
       </c>
-      <c r="H149" t="n">
+      <c r="J149" t="n">
         <v>197.7752438467455</v>
       </c>
-      <c r="I149" t="n">
+      <c r="K149" t="n">
         <v>0.150140990822173</v>
       </c>
-      <c r="J149" t="n">
+      <c r="L149" t="n">
         <v>1.953183938540701</v>
       </c>
-      <c r="K149" t="n">
+      <c r="M149" t="n">
         <v>343.3069680584508</v>
       </c>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr">
         <is>
           <t>[[0.00000000e+000 6.13043606e-001 3.86956394e-001 4.33821868e-037
@@ -7581,26 +8913,26 @@
           <t>max_iter=300</t>
         </is>
       </c>
-      <c r="F150" t="n">
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="n">
         <v>0.169884626774626</v>
       </c>
-      <c r="G150" t="n">
+      <c r="I150" t="n">
         <v>1.695891834942989</v>
       </c>
-      <c r="H150" t="n">
+      <c r="J150" t="n">
         <v>197.7752438467455</v>
       </c>
-      <c r="I150" t="n">
+      <c r="K150" t="n">
         <v>0.150140990822173</v>
       </c>
-      <c r="J150" t="n">
+      <c r="L150" t="n">
         <v>1.953183938540701</v>
       </c>
-      <c r="K150" t="n">
+      <c r="M150" t="n">
         <v>343.3069680584508</v>
       </c>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr">
         <is>
           <t>[[0.00000000e+000 6.13043606e-001 3.86956394e-001 4.33821868e-037
@@ -7641,26 +8973,26 @@
           <t>max_iter=600</t>
         </is>
       </c>
-      <c r="F151" t="n">
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="n">
         <v>0.169884626774626</v>
       </c>
-      <c r="G151" t="n">
+      <c r="I151" t="n">
         <v>1.695891834942989</v>
       </c>
-      <c r="H151" t="n">
+      <c r="J151" t="n">
         <v>197.7752438467455</v>
       </c>
-      <c r="I151" t="n">
+      <c r="K151" t="n">
         <v>0.150140990822173</v>
       </c>
-      <c r="J151" t="n">
+      <c r="L151" t="n">
         <v>1.953183938540701</v>
       </c>
-      <c r="K151" t="n">
+      <c r="M151" t="n">
         <v>343.3069680584508</v>
       </c>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
           <t>[[0.00000000e+000 6.13043606e-001 3.86956394e-001 4.33821868e-037
@@ -7701,26 +9033,26 @@
           <t>max_iter=100</t>
         </is>
       </c>
-      <c r="F152" t="n">
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="n">
         <v>0.1328785490327806</v>
       </c>
-      <c r="G152" t="n">
+      <c r="I152" t="n">
         <v>2.184518669578541</v>
       </c>
-      <c r="H152" t="n">
+      <c r="J152" t="n">
         <v>143.3344233417043</v>
       </c>
-      <c r="I152" t="n">
+      <c r="K152" t="n">
         <v>0.1243787619943958</v>
       </c>
-      <c r="J152" t="n">
+      <c r="L152" t="n">
         <v>2.495187009604977</v>
       </c>
-      <c r="K152" t="n">
+      <c r="M152" t="n">
         <v>239.8313603532802</v>
       </c>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
           <t>[[3.18070078e-022 0.00000000e+000 3.25981619e-025 ... 0.00000000e+000
@@ -7761,26 +9093,26 @@
           <t>max_iter=300</t>
         </is>
       </c>
-      <c r="F153" t="n">
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="n">
         <v>0.1328785490327806</v>
       </c>
-      <c r="G153" t="n">
+      <c r="I153" t="n">
         <v>2.184518669578541</v>
       </c>
-      <c r="H153" t="n">
+      <c r="J153" t="n">
         <v>143.3344233417043</v>
       </c>
-      <c r="I153" t="n">
+      <c r="K153" t="n">
         <v>0.1243787619943958</v>
       </c>
-      <c r="J153" t="n">
+      <c r="L153" t="n">
         <v>2.495187009604977</v>
       </c>
-      <c r="K153" t="n">
+      <c r="M153" t="n">
         <v>239.8313603532802</v>
       </c>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
           <t>[[3.18070078e-022 0.00000000e+000 3.25981619e-025 ... 0.00000000e+000
@@ -7821,26 +9153,26 @@
           <t>max_iter=600</t>
         </is>
       </c>
-      <c r="F154" t="n">
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="n">
         <v>0.1328785490327806</v>
       </c>
-      <c r="G154" t="n">
+      <c r="I154" t="n">
         <v>2.184518669578541</v>
       </c>
-      <c r="H154" t="n">
+      <c r="J154" t="n">
         <v>143.3344233417043</v>
       </c>
-      <c r="I154" t="n">
+      <c r="K154" t="n">
         <v>0.1243787619943958</v>
       </c>
-      <c r="J154" t="n">
+      <c r="L154" t="n">
         <v>2.495187009604977</v>
       </c>
-      <c r="K154" t="n">
+      <c r="M154" t="n">
         <v>239.8313603532802</v>
       </c>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
           <t>[[3.18070078e-022 0.00000000e+000 3.25981619e-025 ... 0.00000000e+000
@@ -7881,26 +9213,26 @@
           <t>max_iter=100</t>
         </is>
       </c>
-      <c r="F155" t="n">
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="n">
         <v>0.1251230995922027</v>
       </c>
-      <c r="G155" t="n">
+      <c r="I155" t="n">
         <v>1.90448554886538</v>
       </c>
-      <c r="H155" t="n">
+      <c r="J155" t="n">
         <v>138.0960341873084</v>
       </c>
-      <c r="I155" t="n">
+      <c r="K155" t="n">
         <v>0.1224305171329339</v>
       </c>
-      <c r="J155" t="n">
+      <c r="L155" t="n">
         <v>2.608214121687835</v>
       </c>
-      <c r="K155" t="n">
+      <c r="M155" t="n">
         <v>238.6313993895338</v>
       </c>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
           <t>[[0.00000000e+000 0.00000000e+000 0.00000000e+000 ... 7.88575533e-016
@@ -7941,26 +9273,26 @@
           <t>max_iter=300</t>
         </is>
       </c>
-      <c r="F156" t="n">
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="n">
         <v>0.1251230995922027</v>
       </c>
-      <c r="G156" t="n">
+      <c r="I156" t="n">
         <v>1.90448554886538</v>
       </c>
-      <c r="H156" t="n">
+      <c r="J156" t="n">
         <v>138.0960341873084</v>
       </c>
-      <c r="I156" t="n">
+      <c r="K156" t="n">
         <v>0.1224305171329339</v>
       </c>
-      <c r="J156" t="n">
+      <c r="L156" t="n">
         <v>2.608214121687835</v>
       </c>
-      <c r="K156" t="n">
+      <c r="M156" t="n">
         <v>238.6313993895338</v>
       </c>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
           <t>[[0.00000000e+000 0.00000000e+000 0.00000000e+000 ... 7.88575533e-016
@@ -8001,26 +9333,26 @@
           <t>max_iter=600</t>
         </is>
       </c>
-      <c r="F157" t="n">
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="n">
         <v>0.1251230995922027</v>
       </c>
-      <c r="G157" t="n">
+      <c r="I157" t="n">
         <v>1.90448554886538</v>
       </c>
-      <c r="H157" t="n">
+      <c r="J157" t="n">
         <v>138.0960341873084</v>
       </c>
-      <c r="I157" t="n">
+      <c r="K157" t="n">
         <v>0.1224305171329339</v>
       </c>
-      <c r="J157" t="n">
+      <c r="L157" t="n">
         <v>2.608214121687835</v>
       </c>
-      <c r="K157" t="n">
+      <c r="M157" t="n">
         <v>238.6313993895338</v>
       </c>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
           <t>[[0.00000000e+000 0.00000000e+000 0.00000000e+000 ... 7.88575533e-016
